--- a/Area PPQA/F.DEV90.PPQA.R01 - HGQA_(20121114).xlsx
+++ b/Area PPQA/F.DEV90.PPQA.R01 - HGQA_(20121114).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="12120" windowHeight="9120" tabRatio="642" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="12120" windowHeight="9120" tabRatio="642" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Historial de Revisiones" sheetId="14" r:id="rId1"/>
@@ -52,7 +52,7 @@
     <definedName name="TipoServicio" localSheetId="0">#REF!</definedName>
     <definedName name="TiposNC">Tablas!$F$3:$F$8</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -163,7 +163,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="218">
   <si>
     <t>Analista Responsable</t>
   </si>
@@ -515,9 +515,6 @@
     <t>Revisado Analista responsable</t>
   </si>
   <si>
-    <t>Fecha Efectiva: 12/02/2009</t>
-  </si>
-  <si>
     <t>Jefe de Fábrica:</t>
   </si>
   <si>
@@ -816,6 +813,18 @@
   </si>
   <si>
     <t>0.2</t>
+  </si>
+  <si>
+    <t>Revision Final de Gestion de Documentos</t>
+  </si>
+  <si>
+    <t>Aprobado</t>
+  </si>
+  <si>
+    <t>Fecha Efectiva: 12/12/2012</t>
+  </si>
+  <si>
+    <t>Se espero 2 dias mas a que el equipo de desarrollo acabara con la implementacin</t>
   </si>
 </sst>
 </file>
@@ -1193,7 +1202,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="30">
+  <fills count="31">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1342,12 +1351,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="39">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -1636,32 +1651,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -1889,7 +1878,7 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="213">
+  <cellXfs count="212">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="32" applyFont="1" applyProtection="1">
       <protection locked="0"/>
@@ -2137,14 +2126,14 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="23" xfId="43" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="24" xfId="43" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -2153,19 +2142,7 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="26" xfId="43" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="10" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2291,7 +2268,7 @@
     <xf numFmtId="0" fontId="4" fillId="25" borderId="11" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="16" fontId="8" fillId="24" borderId="29" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="16" fontId="8" fillId="24" borderId="27" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -2300,11 +2277,7 @@
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="26" xfId="43" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="43" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="24" xfId="43" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -2320,7 +2293,7 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="32"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2334,6 +2307,10 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="10" xfId="40" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="29" borderId="11" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -2357,7 +2334,14 @@
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="10" xfId="40" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" xfId="39" applyFont="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="10" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="24" borderId="10" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -2367,89 +2351,89 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="31" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="27" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="27" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="11" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="27" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="32" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="32" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="29" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="27" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="26" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="31" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="26" borderId="29" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="31" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="27" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="11" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="29" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="32" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="32" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="31" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="29" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="24" borderId="0" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
@@ -2462,7 +2446,7 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="29" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="27" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -2470,14 +2454,14 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="31" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="24" borderId="29" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="27" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="45" fillId="24" borderId="0" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -2486,18 +2470,18 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="45" fillId="24" borderId="30" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="24" borderId="31" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="45" fillId="24" borderId="32" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="24" borderId="33" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="24" borderId="34" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="57" fillId="25" borderId="10" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2505,7 +2489,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="25" borderId="35" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="46" fillId="25" borderId="33" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -2513,14 +2497,14 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="24" borderId="31" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="50" fillId="24" borderId="29" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="50" fillId="24" borderId="27" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="53" fillId="25" borderId="10" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -2533,7 +2517,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="50" fillId="24" borderId="35" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="50" fillId="24" borderId="33" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -2541,7 +2525,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="25" borderId="35" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="46" fillId="25" borderId="33" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -2561,20 +2545,20 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="25" borderId="29" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="46" fillId="25" borderId="27" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="59" fillId="0" borderId="10" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="34" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="35" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="59" fillId="0" borderId="36" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="37" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="38" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2809,10 +2793,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3196,10 +3180,10 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1</c:v>
@@ -3517,10 +3501,10 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>72</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>53</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3535,11 +3519,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="156073344"/>
-        <c:axId val="156093056"/>
+        <c:axId val="102577280"/>
+        <c:axId val="102617472"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="156073344"/>
+        <c:axId val="102577280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3574,7 +3558,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="156093056"/>
+        <c:crossAx val="102617472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3584,7 +3568,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="156093056"/>
+        <c:axId val="102617472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3629,7 +3613,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="156073344"/>
+        <c:crossAx val="102577280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3911,7 +3895,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3982,7 +3966,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4053,7 +4037,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4069,12 +4053,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="156157824"/>
-        <c:axId val="156164096"/>
+        <c:axId val="108158336"/>
+        <c:axId val="108164608"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="156157824"/>
+        <c:axId val="108158336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4148,7 +4132,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="156164096"/>
+        <c:crossAx val="108164608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4158,7 +4142,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="156164096"/>
+        <c:axId val="108164608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4242,7 +4226,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="156157824"/>
+        <c:crossAx val="108158336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4951,8 +4935,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -4981,15 +4965,15 @@
     </row>
     <row r="2" spans="1:9" ht="15.75">
       <c r="A2" s="68"/>
-      <c r="B2" s="150" t="s">
+      <c r="B2" s="149" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="150"/>
-      <c r="D2" s="150"/>
-      <c r="E2" s="150"/>
-      <c r="F2" s="150"/>
-      <c r="G2" s="150"/>
-      <c r="H2" s="150"/>
+      <c r="C2" s="149"/>
+      <c r="D2" s="149"/>
+      <c r="E2" s="149"/>
+      <c r="F2" s="149"/>
+      <c r="G2" s="149"/>
+      <c r="H2" s="149"/>
       <c r="I2" s="68"/>
     </row>
     <row r="3" spans="1:9" ht="13.5" thickBot="1">
@@ -5040,53 +5024,67 @@
         <v>41226</v>
       </c>
       <c r="E5" s="76" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F5" s="76" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G5" s="77" t="s">
         <v>70</v>
       </c>
       <c r="H5" s="78" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I5" s="68"/>
     </row>
-    <row r="6" spans="1:9" ht="24">
+    <row r="6" spans="1:9" ht="24.75" thickBot="1">
       <c r="A6" s="68"/>
       <c r="B6" s="73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" s="74" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D6" s="75">
         <v>41227</v>
       </c>
       <c r="E6" s="76" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F6" s="76" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G6" s="77" t="s">
         <v>70</v>
       </c>
       <c r="H6" s="78" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I6" s="68"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" ht="24">
       <c r="A7" s="68"/>
-      <c r="B7" s="79"/>
-      <c r="C7" s="132"/>
-      <c r="D7" s="83"/>
-      <c r="E7" s="81"/>
-      <c r="F7" s="84"/>
-      <c r="G7" s="84"/>
-      <c r="H7" s="85"/>
+      <c r="B7" s="73">
+        <v>3</v>
+      </c>
+      <c r="C7" s="74" t="s">
+        <v>213</v>
+      </c>
+      <c r="D7" s="75">
+        <v>41259</v>
+      </c>
+      <c r="E7" s="76" t="s">
+        <v>159</v>
+      </c>
+      <c r="F7" s="76" t="s">
+        <v>214</v>
+      </c>
+      <c r="G7" s="77" t="s">
+        <v>215</v>
+      </c>
+      <c r="H7" s="78" t="s">
+        <v>160</v>
+      </c>
       <c r="I7" s="68"/>
     </row>
     <row r="8" spans="1:9">
@@ -5103,7 +5101,7 @@
     <row r="9" spans="1:9">
       <c r="A9" s="68"/>
       <c r="B9" s="79"/>
-      <c r="C9" s="136"/>
+      <c r="C9" s="132"/>
       <c r="D9" s="80"/>
       <c r="E9" s="81"/>
       <c r="F9" s="81"/>
@@ -5112,13 +5110,13 @@
       <c r="I9" s="68"/>
     </row>
     <row r="10" spans="1:9" ht="13.5" thickBot="1">
-      <c r="B10" s="86"/>
-      <c r="C10" s="87"/>
-      <c r="D10" s="131"/>
-      <c r="E10" s="88"/>
-      <c r="F10" s="88"/>
-      <c r="G10" s="88"/>
-      <c r="H10" s="89"/>
+      <c r="B10" s="83"/>
+      <c r="C10" s="84"/>
+      <c r="D10" s="128"/>
+      <c r="E10" s="85"/>
+      <c r="F10" s="85"/>
+      <c r="G10" s="85"/>
+      <c r="H10" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5136,8 +5134,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:M87"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView showGridLines="0" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -5154,22 +5152,22 @@
     <row r="2" spans="1:8" s="63" customFormat="1" ht="48.75" customHeight="1">
       <c r="A2" s="40"/>
       <c r="B2" s="64"/>
-      <c r="C2" s="163" t="s">
-        <v>165</v>
-      </c>
-      <c r="D2" s="164"/>
-      <c r="E2" s="165"/>
+      <c r="C2" s="156" t="s">
+        <v>164</v>
+      </c>
+      <c r="D2" s="157"/>
+      <c r="E2" s="158"/>
     </row>
     <row r="3" spans="1:8" s="63" customFormat="1">
       <c r="A3" s="40"/>
       <c r="B3" s="65" t="s">
         <v>95</v>
       </c>
-      <c r="C3" s="171" t="s">
-        <v>114</v>
-      </c>
-      <c r="D3" s="172"/>
-      <c r="E3" s="173"/>
+      <c r="C3" s="164" t="s">
+        <v>216</v>
+      </c>
+      <c r="D3" s="165"/>
+      <c r="E3" s="166"/>
     </row>
     <row r="4" spans="1:8" s="63" customFormat="1" ht="21.75" customHeight="1">
       <c r="A4" s="40"/>
@@ -5181,12 +5179,12 @@
     </row>
     <row r="5" spans="1:8" ht="24.75" customHeight="1">
       <c r="A5" s="40"/>
-      <c r="B5" s="166" t="s">
+      <c r="B5" s="159" t="s">
         <v>71</v>
       </c>
-      <c r="C5" s="167"/>
-      <c r="D5" s="167"/>
-      <c r="E5" s="168"/>
+      <c r="C5" s="160"/>
+      <c r="D5" s="160"/>
+      <c r="E5" s="161"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="40"/>
@@ -5208,83 +5206,83 @@
       <c r="B8" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="92"/>
-      <c r="D8" s="169" t="s">
+      <c r="C8" s="89"/>
+      <c r="D8" s="162" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="170"/>
+      <c r="E8" s="163"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="40"/>
-      <c r="B9" s="93"/>
+      <c r="B9" s="90"/>
       <c r="C9" s="67"/>
-      <c r="D9" s="94"/>
-      <c r="E9" s="94"/>
+      <c r="D9" s="91"/>
+      <c r="E9" s="91"/>
     </row>
     <row r="10" spans="1:8" ht="12" customHeight="1">
       <c r="A10" s="40"/>
-      <c r="B10" s="95" t="s">
+      <c r="B10" s="92" t="s">
         <v>94</v>
       </c>
       <c r="C10" s="63"/>
-      <c r="D10" s="96" t="s">
+      <c r="D10" s="93" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="96"/>
+      <c r="E10" s="93"/>
     </row>
     <row r="11" spans="1:8" ht="9.9499999999999993" customHeight="1">
       <c r="A11" s="40"/>
-      <c r="B11" s="97"/>
+      <c r="B11" s="94"/>
       <c r="C11" s="63"/>
-      <c r="D11" s="98"/>
-      <c r="E11" s="98"/>
+      <c r="D11" s="95"/>
+      <c r="E11" s="95"/>
     </row>
     <row r="12" spans="1:8" ht="12" customHeight="1">
       <c r="A12" s="40"/>
-      <c r="B12" s="99" t="s">
+      <c r="B12" s="96" t="s">
         <v>94</v>
       </c>
       <c r="C12" s="63"/>
-      <c r="D12" s="96" t="s">
+      <c r="D12" s="93" t="s">
         <v>45</v>
       </c>
-      <c r="E12" s="96"/>
+      <c r="E12" s="93"/>
     </row>
     <row r="13" spans="1:8" ht="9.9499999999999993" customHeight="1">
       <c r="A13" s="40"/>
       <c r="B13" s="63"/>
       <c r="C13" s="63"/>
-      <c r="D13" s="98"/>
-      <c r="E13" s="98"/>
+      <c r="D13" s="95"/>
+      <c r="E13" s="95"/>
     </row>
     <row r="14" spans="1:8" ht="12" customHeight="1">
       <c r="A14" s="38"/>
-      <c r="B14" s="100" t="s">
+      <c r="B14" s="97" t="s">
         <v>94</v>
       </c>
       <c r="C14" s="63"/>
-      <c r="D14" s="96" t="s">
+      <c r="D14" s="93" t="s">
         <v>101</v>
       </c>
-      <c r="E14" s="96"/>
+      <c r="E14" s="93"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="38"/>
       <c r="B15" s="63"/>
       <c r="C15" s="63"/>
-      <c r="D15" s="98"/>
-      <c r="E15" s="98"/>
+      <c r="D15" s="95"/>
+      <c r="E15" s="95"/>
     </row>
     <row r="16" spans="1:8" ht="12" customHeight="1">
       <c r="A16" s="38"/>
-      <c r="B16" s="101" t="s">
+      <c r="B16" s="98" t="s">
         <v>94</v>
       </c>
       <c r="C16" s="63"/>
-      <c r="D16" s="96" t="s">
+      <c r="D16" s="93" t="s">
         <v>46</v>
       </c>
-      <c r="E16" s="96"/>
+      <c r="E16" s="93"/>
       <c r="H16" s="42"/>
     </row>
     <row r="17" spans="1:8" s="54" customFormat="1" ht="12" customHeight="1">
@@ -5298,62 +5296,62 @@
       <c r="A18" s="38"/>
     </row>
     <row r="19" spans="1:8" s="59" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B19" s="177" t="s">
+      <c r="B19" s="170" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="178"/>
-      <c r="D19" s="178"/>
-      <c r="E19" s="179"/>
+      <c r="C19" s="171"/>
+      <c r="D19" s="171"/>
+      <c r="E19" s="172"/>
     </row>
     <row r="20" spans="1:8" s="59" customFormat="1" ht="13.5" customHeight="1">
       <c r="B20" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="C20" s="154" t="s">
+      <c r="C20" s="173" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="155"/>
-      <c r="E20" s="156"/>
+      <c r="D20" s="174"/>
+      <c r="E20" s="175"/>
     </row>
     <row r="21" spans="1:8" s="59" customFormat="1" ht="12.75" customHeight="1">
       <c r="B21" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="174" t="s">
+      <c r="C21" s="167" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="175"/>
-      <c r="E21" s="176"/>
+      <c r="D21" s="168"/>
+      <c r="E21" s="169"/>
     </row>
     <row r="22" spans="1:8" s="59" customFormat="1" ht="12.75" customHeight="1">
       <c r="B22" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="174" t="s">
+      <c r="C22" s="167" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="175"/>
-      <c r="E22" s="176"/>
+      <c r="D22" s="168"/>
+      <c r="E22" s="169"/>
     </row>
     <row r="23" spans="1:8" s="59" customFormat="1" ht="12.75" customHeight="1">
       <c r="B23" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="174" t="s">
+      <c r="C23" s="167" t="s">
         <v>102</v>
       </c>
-      <c r="D23" s="175"/>
-      <c r="E23" s="176"/>
+      <c r="D23" s="168"/>
+      <c r="E23" s="169"/>
     </row>
     <row r="24" spans="1:8" s="59" customFormat="1" ht="13.5" customHeight="1">
       <c r="B24" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="174" t="s">
+      <c r="C24" s="167" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="175"/>
-      <c r="E24" s="176"/>
+      <c r="D24" s="168"/>
+      <c r="E24" s="169"/>
     </row>
     <row r="25" spans="1:8" s="59" customFormat="1" ht="13.5" customHeight="1">
       <c r="B25" s="61"/>
@@ -5366,57 +5364,57 @@
       <c r="B26" s="52"/>
     </row>
     <row r="27" spans="1:8" s="59" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B27" s="177" t="s">
+      <c r="B27" s="170" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="178"/>
-      <c r="D27" s="178"/>
-      <c r="E27" s="179"/>
+      <c r="C27" s="171"/>
+      <c r="D27" s="171"/>
+      <c r="E27" s="172"/>
     </row>
     <row r="28" spans="1:8" s="59" customFormat="1" ht="13.5" customHeight="1">
       <c r="B28" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="C28" s="154" t="s">
+      <c r="C28" s="173" t="s">
         <v>6</v>
       </c>
-      <c r="D28" s="155"/>
-      <c r="E28" s="156"/>
+      <c r="D28" s="174"/>
+      <c r="E28" s="175"/>
     </row>
     <row r="29" spans="1:8" ht="12.75" customHeight="1">
       <c r="A29" s="38"/>
-      <c r="B29" s="160" t="s">
+      <c r="B29" s="176" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="161"/>
-      <c r="D29" s="161"/>
-      <c r="E29" s="162"/>
+      <c r="C29" s="177"/>
+      <c r="D29" s="177"/>
+      <c r="E29" s="178"/>
       <c r="F29" s="59"/>
       <c r="G29" s="59"/>
     </row>
     <row r="30" spans="1:8" ht="16.5" customHeight="1">
       <c r="A30" s="38"/>
       <c r="B30" s="49" t="s">
+        <v>114</v>
+      </c>
+      <c r="C30" s="150" t="s">
         <v>115</v>
       </c>
-      <c r="C30" s="151" t="s">
-        <v>116</v>
-      </c>
-      <c r="D30" s="152"/>
-      <c r="E30" s="153"/>
+      <c r="D30" s="151"/>
+      <c r="E30" s="152"/>
       <c r="F30" s="59"/>
       <c r="G30" s="59"/>
     </row>
     <row r="31" spans="1:8" ht="16.5" customHeight="1">
       <c r="A31" s="38"/>
       <c r="B31" s="47" t="s">
+        <v>116</v>
+      </c>
+      <c r="C31" s="150" t="s">
         <v>117</v>
       </c>
-      <c r="C31" s="151" t="s">
-        <v>118</v>
-      </c>
-      <c r="D31" s="152"/>
-      <c r="E31" s="153"/>
+      <c r="D31" s="151"/>
+      <c r="E31" s="152"/>
       <c r="F31" s="59"/>
       <c r="G31" s="59"/>
     </row>
@@ -5425,11 +5423,11 @@
       <c r="B32" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="C32" s="151" t="s">
+      <c r="C32" s="150" t="s">
         <v>54</v>
       </c>
-      <c r="D32" s="152"/>
-      <c r="E32" s="153"/>
+      <c r="D32" s="151"/>
+      <c r="E32" s="152"/>
       <c r="F32" s="59"/>
       <c r="G32" s="59"/>
     </row>
@@ -5438,11 +5436,11 @@
       <c r="B33" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="C33" s="151" t="s">
+      <c r="C33" s="150" t="s">
         <v>73</v>
       </c>
-      <c r="D33" s="152"/>
-      <c r="E33" s="153"/>
+      <c r="D33" s="151"/>
+      <c r="E33" s="152"/>
       <c r="F33" s="59"/>
       <c r="G33" s="59"/>
     </row>
@@ -5451,178 +5449,178 @@
       <c r="B34" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="151" t="s">
+      <c r="C34" s="150" t="s">
         <v>74</v>
       </c>
-      <c r="D34" s="152"/>
-      <c r="E34" s="153"/>
+      <c r="D34" s="151"/>
+      <c r="E34" s="152"/>
     </row>
     <row r="35" spans="1:7" ht="16.5" customHeight="1">
       <c r="A35" s="38"/>
       <c r="B35" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="C35" s="151" t="s">
+      <c r="C35" s="150" t="s">
         <v>75</v>
       </c>
-      <c r="D35" s="152"/>
-      <c r="E35" s="153"/>
+      <c r="D35" s="151"/>
+      <c r="E35" s="152"/>
     </row>
     <row r="36" spans="1:7" ht="16.5" customHeight="1">
       <c r="A36" s="38"/>
-      <c r="B36" s="160" t="s">
+      <c r="B36" s="176" t="s">
         <v>52</v>
       </c>
-      <c r="C36" s="161"/>
-      <c r="D36" s="161"/>
-      <c r="E36" s="162"/>
+      <c r="C36" s="177"/>
+      <c r="D36" s="177"/>
+      <c r="E36" s="178"/>
     </row>
     <row r="37" spans="1:7" ht="16.5" customHeight="1">
       <c r="A37" s="38"/>
       <c r="B37" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="151" t="s">
+      <c r="C37" s="150" t="s">
         <v>76</v>
       </c>
-      <c r="D37" s="152"/>
-      <c r="E37" s="153"/>
+      <c r="D37" s="151"/>
+      <c r="E37" s="152"/>
     </row>
     <row r="38" spans="1:7" ht="16.5" customHeight="1">
       <c r="A38" s="38"/>
       <c r="B38" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="151" t="s">
+      <c r="C38" s="150" t="s">
         <v>87</v>
       </c>
-      <c r="D38" s="152"/>
-      <c r="E38" s="153"/>
+      <c r="D38" s="151"/>
+      <c r="E38" s="152"/>
     </row>
     <row r="39" spans="1:7" ht="17.25" customHeight="1">
       <c r="A39" s="38"/>
       <c r="B39" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="C39" s="151" t="s">
+      <c r="C39" s="150" t="s">
         <v>104</v>
       </c>
-      <c r="D39" s="152"/>
-      <c r="E39" s="153"/>
+      <c r="D39" s="151"/>
+      <c r="E39" s="152"/>
     </row>
     <row r="40" spans="1:7" ht="16.5" customHeight="1">
       <c r="A40" s="38"/>
       <c r="B40" s="47" t="s">
+        <v>143</v>
+      </c>
+      <c r="C40" s="150" t="s">
         <v>144</v>
       </c>
-      <c r="C40" s="151" t="s">
-        <v>145</v>
-      </c>
-      <c r="D40" s="152"/>
-      <c r="E40" s="153"/>
+      <c r="D40" s="151"/>
+      <c r="E40" s="152"/>
     </row>
     <row r="41" spans="1:7" ht="16.5" customHeight="1">
       <c r="A41" s="38"/>
       <c r="B41" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C41" s="151" t="s">
+      <c r="C41" s="150" t="s">
         <v>106</v>
       </c>
-      <c r="D41" s="152"/>
-      <c r="E41" s="153"/>
+      <c r="D41" s="151"/>
+      <c r="E41" s="152"/>
     </row>
     <row r="42" spans="1:7" ht="16.5" customHeight="1">
       <c r="A42" s="38"/>
       <c r="B42" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="C42" s="151" t="s">
+      <c r="C42" s="150" t="s">
         <v>105</v>
       </c>
-      <c r="D42" s="152"/>
-      <c r="E42" s="153"/>
+      <c r="D42" s="151"/>
+      <c r="E42" s="152"/>
     </row>
     <row r="43" spans="1:7" ht="16.5" customHeight="1">
       <c r="A43" s="38"/>
       <c r="B43" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="C43" s="151" t="s">
+      <c r="C43" s="150" t="s">
         <v>79</v>
       </c>
-      <c r="D43" s="152"/>
-      <c r="E43" s="153"/>
+      <c r="D43" s="151"/>
+      <c r="E43" s="152"/>
     </row>
     <row r="44" spans="1:7" ht="16.5" customHeight="1">
       <c r="A44" s="38"/>
       <c r="B44" s="50" t="s">
         <v>59</v>
       </c>
-      <c r="C44" s="151" t="s">
+      <c r="C44" s="150" t="s">
         <v>80</v>
       </c>
-      <c r="D44" s="152"/>
-      <c r="E44" s="153"/>
+      <c r="D44" s="151"/>
+      <c r="E44" s="152"/>
     </row>
     <row r="45" spans="1:7" ht="16.5" customHeight="1">
       <c r="A45" s="38"/>
       <c r="B45" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="C45" s="151" t="s">
+      <c r="C45" s="150" t="s">
         <v>77</v>
       </c>
-      <c r="D45" s="152"/>
-      <c r="E45" s="153"/>
+      <c r="D45" s="151"/>
+      <c r="E45" s="152"/>
     </row>
     <row r="46" spans="1:7" ht="16.5" customHeight="1">
       <c r="A46" s="38"/>
       <c r="B46" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="C46" s="151" t="s">
+      <c r="C46" s="150" t="s">
         <v>82</v>
       </c>
-      <c r="D46" s="152"/>
-      <c r="E46" s="153"/>
+      <c r="D46" s="151"/>
+      <c r="E46" s="152"/>
     </row>
     <row r="47" spans="1:7" ht="16.5" customHeight="1">
       <c r="A47" s="38"/>
       <c r="B47" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="C47" s="151" t="s">
+      <c r="C47" s="150" t="s">
         <v>83</v>
       </c>
-      <c r="D47" s="152"/>
-      <c r="E47" s="153"/>
+      <c r="D47" s="151"/>
+      <c r="E47" s="152"/>
     </row>
     <row r="48" spans="1:7" ht="16.5" customHeight="1">
       <c r="A48" s="38"/>
       <c r="B48" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="C48" s="151" t="s">
+      <c r="C48" s="150" t="s">
         <v>81</v>
       </c>
-      <c r="D48" s="152"/>
-      <c r="E48" s="153"/>
+      <c r="D48" s="151"/>
+      <c r="E48" s="152"/>
     </row>
     <row r="49" spans="1:13" ht="16.5" customHeight="1">
       <c r="A49" s="38"/>
       <c r="B49" s="47" t="s">
-        <v>146</v>
-      </c>
-      <c r="C49" s="151" t="s">
+        <v>145</v>
+      </c>
+      <c r="C49" s="150" t="s">
         <v>78</v>
       </c>
-      <c r="D49" s="152"/>
-      <c r="E49" s="153"/>
+      <c r="D49" s="151"/>
+      <c r="E49" s="152"/>
     </row>
     <row r="50" spans="1:13" ht="16.5" customHeight="1">
       <c r="A50" s="59"/>
-      <c r="B50" s="90"/>
+      <c r="B50" s="87"/>
       <c r="C50" s="62"/>
       <c r="D50" s="62"/>
       <c r="E50" s="62"/>
@@ -5651,23 +5649,23 @@
       <c r="M51" s="39"/>
     </row>
     <row r="52" spans="1:13" s="59" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B52" s="177" t="s">
+      <c r="B52" s="170" t="s">
         <v>55</v>
       </c>
-      <c r="C52" s="178"/>
-      <c r="D52" s="178"/>
-      <c r="E52" s="179"/>
+      <c r="C52" s="171"/>
+      <c r="D52" s="171"/>
+      <c r="E52" s="172"/>
     </row>
     <row r="53" spans="1:13" ht="16.5" customHeight="1">
       <c r="A53" s="59"/>
       <c r="B53" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="C53" s="154" t="s">
+      <c r="C53" s="173" t="s">
         <v>6</v>
       </c>
-      <c r="D53" s="155"/>
-      <c r="E53" s="156"/>
+      <c r="D53" s="174"/>
+      <c r="E53" s="175"/>
       <c r="F53" s="59"/>
       <c r="G53" s="59"/>
       <c r="H53" s="59"/>
@@ -5680,134 +5678,134 @@
     <row r="54" spans="1:13" ht="16.5" customHeight="1">
       <c r="A54" s="38"/>
       <c r="B54" s="47" t="s">
-        <v>147</v>
-      </c>
-      <c r="C54" s="151" t="s">
+        <v>146</v>
+      </c>
+      <c r="C54" s="150" t="s">
         <v>76</v>
       </c>
-      <c r="D54" s="152"/>
-      <c r="E54" s="153"/>
+      <c r="D54" s="151"/>
+      <c r="E54" s="152"/>
     </row>
     <row r="55" spans="1:13" ht="16.5" customHeight="1">
       <c r="A55" s="38"/>
       <c r="B55" s="47" t="s">
-        <v>124</v>
-      </c>
-      <c r="C55" s="151" t="s">
+        <v>123</v>
+      </c>
+      <c r="C55" s="150" t="s">
         <v>88</v>
       </c>
-      <c r="D55" s="152"/>
-      <c r="E55" s="153"/>
+      <c r="D55" s="151"/>
+      <c r="E55" s="152"/>
     </row>
     <row r="56" spans="1:13" ht="16.5" customHeight="1">
       <c r="A56" s="38"/>
       <c r="B56" s="47" t="s">
         <v>86</v>
       </c>
-      <c r="C56" s="151" t="s">
+      <c r="C56" s="150" t="s">
         <v>89</v>
       </c>
-      <c r="D56" s="152"/>
-      <c r="E56" s="153"/>
+      <c r="D56" s="151"/>
+      <c r="E56" s="152"/>
     </row>
     <row r="57" spans="1:13" ht="16.5" customHeight="1">
       <c r="A57" s="38"/>
       <c r="B57" s="47" t="s">
         <v>113</v>
       </c>
-      <c r="C57" s="151" t="s">
+      <c r="C57" s="150" t="s">
         <v>107</v>
       </c>
-      <c r="D57" s="158"/>
-      <c r="E57" s="159"/>
+      <c r="D57" s="154"/>
+      <c r="E57" s="155"/>
     </row>
     <row r="58" spans="1:13" ht="16.5" customHeight="1">
       <c r="A58" s="38"/>
       <c r="B58" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="C58" s="151" t="s">
+      <c r="C58" s="150" t="s">
         <v>93</v>
       </c>
-      <c r="D58" s="158"/>
-      <c r="E58" s="159"/>
+      <c r="D58" s="154"/>
+      <c r="E58" s="155"/>
     </row>
     <row r="59" spans="1:13" ht="16.5" customHeight="1">
       <c r="A59" s="38"/>
       <c r="B59" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="C59" s="151" t="s">
+      <c r="C59" s="150" t="s">
         <v>84</v>
       </c>
-      <c r="D59" s="158"/>
-      <c r="E59" s="159"/>
+      <c r="D59" s="154"/>
+      <c r="E59" s="155"/>
     </row>
     <row r="60" spans="1:13" ht="54" customHeight="1">
       <c r="A60" s="38"/>
       <c r="B60" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="C60" s="151" t="s">
+      <c r="C60" s="150" t="s">
         <v>108</v>
       </c>
-      <c r="D60" s="158"/>
-      <c r="E60" s="159"/>
+      <c r="D60" s="154"/>
+      <c r="E60" s="155"/>
     </row>
     <row r="61" spans="1:13" ht="16.5" customHeight="1">
       <c r="A61" s="38"/>
       <c r="B61" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="C61" s="157" t="s">
+      <c r="C61" s="153" t="s">
         <v>92</v>
       </c>
-      <c r="D61" s="158"/>
-      <c r="E61" s="159"/>
+      <c r="D61" s="154"/>
+      <c r="E61" s="155"/>
     </row>
     <row r="62" spans="1:13" ht="30" customHeight="1">
       <c r="A62" s="38"/>
       <c r="B62" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="C62" s="151" t="s">
+      <c r="C62" s="150" t="s">
         <v>57</v>
       </c>
-      <c r="D62" s="158"/>
-      <c r="E62" s="159"/>
+      <c r="D62" s="154"/>
+      <c r="E62" s="155"/>
     </row>
     <row r="63" spans="1:13" ht="16.5" customHeight="1">
       <c r="A63" s="38"/>
       <c r="B63" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="C63" s="157" t="s">
+      <c r="C63" s="153" t="s">
         <v>62</v>
       </c>
-      <c r="D63" s="158"/>
-      <c r="E63" s="159"/>
+      <c r="D63" s="154"/>
+      <c r="E63" s="155"/>
     </row>
     <row r="64" spans="1:13" ht="16.5" customHeight="1">
       <c r="A64" s="38"/>
       <c r="B64" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="C64" s="157" t="s">
+      <c r="C64" s="153" t="s">
         <v>85</v>
       </c>
-      <c r="D64" s="158"/>
-      <c r="E64" s="159"/>
+      <c r="D64" s="154"/>
+      <c r="E64" s="155"/>
     </row>
     <row r="65" spans="1:8" ht="16.5" customHeight="1">
       <c r="A65" s="38"/>
       <c r="B65" s="47" t="s">
         <v>100</v>
       </c>
-      <c r="C65" s="151" t="s">
+      <c r="C65" s="150" t="s">
         <v>78</v>
       </c>
-      <c r="D65" s="152"/>
-      <c r="E65" s="153"/>
+      <c r="D65" s="151"/>
+      <c r="E65" s="152"/>
     </row>
     <row r="66" spans="1:8" ht="16.5" customHeight="1">
       <c r="A66" s="38"/>
@@ -5818,200 +5816,200 @@
     </row>
     <row r="67" spans="1:8" ht="16.5" customHeight="1">
       <c r="A67" s="38"/>
-      <c r="B67" s="181"/>
-      <c r="C67" s="181"/>
-      <c r="D67" s="181"/>
-      <c r="E67" s="181"/>
+      <c r="B67" s="180"/>
+      <c r="C67" s="180"/>
+      <c r="D67" s="180"/>
+      <c r="E67" s="180"/>
       <c r="F67" s="58"/>
       <c r="G67" s="58"/>
       <c r="H67" s="58"/>
     </row>
     <row r="68" spans="1:8" ht="16.5" customHeight="1">
       <c r="A68" s="38"/>
-      <c r="B68" s="180"/>
-      <c r="C68" s="180"/>
-      <c r="D68" s="180"/>
-      <c r="E68" s="180"/>
+      <c r="B68" s="179"/>
+      <c r="C68" s="179"/>
+      <c r="D68" s="179"/>
+      <c r="E68" s="179"/>
       <c r="F68" s="58"/>
       <c r="G68" s="58"/>
       <c r="H68" s="58"/>
     </row>
     <row r="69" spans="1:8" ht="16.5" customHeight="1">
       <c r="A69" s="38"/>
-      <c r="B69" s="180"/>
-      <c r="C69" s="180"/>
-      <c r="D69" s="180"/>
-      <c r="E69" s="180"/>
+      <c r="B69" s="179"/>
+      <c r="C69" s="179"/>
+      <c r="D69" s="179"/>
+      <c r="E69" s="179"/>
       <c r="F69" s="58"/>
       <c r="G69" s="58"/>
       <c r="H69" s="58"/>
     </row>
     <row r="70" spans="1:8" ht="16.5" customHeight="1">
       <c r="A70" s="38"/>
-      <c r="B70" s="180"/>
-      <c r="C70" s="180"/>
-      <c r="D70" s="180"/>
-      <c r="E70" s="180"/>
+      <c r="B70" s="179"/>
+      <c r="C70" s="179"/>
+      <c r="D70" s="179"/>
+      <c r="E70" s="179"/>
       <c r="F70" s="58"/>
       <c r="G70" s="58"/>
       <c r="H70" s="58"/>
     </row>
     <row r="71" spans="1:8" ht="16.5" customHeight="1">
       <c r="A71" s="38"/>
-      <c r="B71" s="180"/>
-      <c r="C71" s="180"/>
-      <c r="D71" s="180"/>
-      <c r="E71" s="180"/>
+      <c r="B71" s="179"/>
+      <c r="C71" s="179"/>
+      <c r="D71" s="179"/>
+      <c r="E71" s="179"/>
       <c r="F71" s="58"/>
       <c r="G71" s="58"/>
       <c r="H71" s="58"/>
     </row>
     <row r="72" spans="1:8" ht="16.5" customHeight="1">
       <c r="A72" s="38"/>
-      <c r="B72" s="180"/>
-      <c r="C72" s="180"/>
-      <c r="D72" s="180"/>
-      <c r="E72" s="180"/>
+      <c r="B72" s="179"/>
+      <c r="C72" s="179"/>
+      <c r="D72" s="179"/>
+      <c r="E72" s="179"/>
       <c r="F72" s="58"/>
       <c r="G72" s="58"/>
       <c r="H72" s="58"/>
     </row>
     <row r="73" spans="1:8" ht="16.5" customHeight="1">
       <c r="A73" s="43"/>
-      <c r="B73" s="180"/>
-      <c r="C73" s="180"/>
-      <c r="D73" s="180"/>
-      <c r="E73" s="180"/>
+      <c r="B73" s="179"/>
+      <c r="C73" s="179"/>
+      <c r="D73" s="179"/>
+      <c r="E73" s="179"/>
       <c r="F73" s="58"/>
       <c r="G73" s="58"/>
       <c r="H73" s="58"/>
     </row>
     <row r="74" spans="1:8" ht="16.5" customHeight="1">
       <c r="A74" s="38"/>
-      <c r="B74" s="180"/>
-      <c r="C74" s="180"/>
-      <c r="D74" s="180"/>
-      <c r="E74" s="180"/>
+      <c r="B74" s="179"/>
+      <c r="C74" s="179"/>
+      <c r="D74" s="179"/>
+      <c r="E74" s="179"/>
       <c r="F74" s="58"/>
       <c r="G74" s="58"/>
       <c r="H74" s="58"/>
     </row>
     <row r="75" spans="1:8" ht="16.5" customHeight="1">
       <c r="A75" s="38"/>
-      <c r="B75" s="180"/>
-      <c r="C75" s="180"/>
-      <c r="D75" s="180"/>
-      <c r="E75" s="180"/>
+      <c r="B75" s="179"/>
+      <c r="C75" s="179"/>
+      <c r="D75" s="179"/>
+      <c r="E75" s="179"/>
       <c r="F75" s="58"/>
       <c r="G75" s="58"/>
       <c r="H75" s="58"/>
     </row>
     <row r="76" spans="1:8" ht="16.5" customHeight="1">
       <c r="A76" s="38"/>
-      <c r="B76" s="180"/>
-      <c r="C76" s="180"/>
-      <c r="D76" s="180"/>
-      <c r="E76" s="180"/>
+      <c r="B76" s="179"/>
+      <c r="C76" s="179"/>
+      <c r="D76" s="179"/>
+      <c r="E76" s="179"/>
       <c r="F76" s="58"/>
       <c r="G76" s="58"/>
       <c r="H76" s="58"/>
     </row>
     <row r="77" spans="1:8" ht="16.5" customHeight="1">
       <c r="A77" s="38"/>
-      <c r="B77" s="180"/>
-      <c r="C77" s="180"/>
-      <c r="D77" s="180"/>
-      <c r="E77" s="180"/>
+      <c r="B77" s="179"/>
+      <c r="C77" s="179"/>
+      <c r="D77" s="179"/>
+      <c r="E77" s="179"/>
       <c r="F77" s="58"/>
       <c r="G77" s="58"/>
       <c r="H77" s="58"/>
     </row>
     <row r="78" spans="1:8" ht="16.5" customHeight="1">
       <c r="A78" s="38"/>
-      <c r="B78" s="180"/>
-      <c r="C78" s="180"/>
-      <c r="D78" s="180"/>
-      <c r="E78" s="180"/>
+      <c r="B78" s="179"/>
+      <c r="C78" s="179"/>
+      <c r="D78" s="179"/>
+      <c r="E78" s="179"/>
       <c r="F78" s="58"/>
       <c r="G78" s="58"/>
       <c r="H78" s="58"/>
     </row>
     <row r="79" spans="1:8" ht="16.5" customHeight="1">
       <c r="A79" s="43"/>
-      <c r="B79" s="180"/>
-      <c r="C79" s="180"/>
-      <c r="D79" s="180"/>
-      <c r="E79" s="180"/>
+      <c r="B79" s="179"/>
+      <c r="C79" s="179"/>
+      <c r="D79" s="179"/>
+      <c r="E79" s="179"/>
       <c r="F79" s="58"/>
       <c r="G79" s="58"/>
       <c r="H79" s="58"/>
     </row>
     <row r="80" spans="1:8" ht="16.5" customHeight="1">
       <c r="A80" s="43"/>
-      <c r="B80" s="180"/>
-      <c r="C80" s="180"/>
-      <c r="D80" s="180"/>
-      <c r="E80" s="180"/>
+      <c r="B80" s="179"/>
+      <c r="C80" s="179"/>
+      <c r="D80" s="179"/>
+      <c r="E80" s="179"/>
       <c r="F80" s="58"/>
       <c r="G80" s="58"/>
       <c r="H80" s="58"/>
     </row>
     <row r="81" spans="1:8" ht="16.5" customHeight="1">
       <c r="A81" s="43"/>
-      <c r="B81" s="180"/>
-      <c r="C81" s="180"/>
-      <c r="D81" s="180"/>
-      <c r="E81" s="180"/>
+      <c r="B81" s="179"/>
+      <c r="C81" s="179"/>
+      <c r="D81" s="179"/>
+      <c r="E81" s="179"/>
       <c r="F81" s="58"/>
       <c r="G81" s="58"/>
       <c r="H81" s="58"/>
     </row>
     <row r="82" spans="1:8" ht="16.5" customHeight="1">
       <c r="A82" s="43"/>
-      <c r="B82" s="180"/>
-      <c r="C82" s="180"/>
-      <c r="D82" s="180"/>
-      <c r="E82" s="180"/>
+      <c r="B82" s="179"/>
+      <c r="C82" s="179"/>
+      <c r="D82" s="179"/>
+      <c r="E82" s="179"/>
       <c r="F82" s="58"/>
       <c r="G82" s="58"/>
       <c r="H82" s="58"/>
     </row>
     <row r="83" spans="1:8" ht="16.5" customHeight="1">
       <c r="A83" s="43"/>
-      <c r="B83" s="180"/>
-      <c r="C83" s="180"/>
-      <c r="D83" s="180"/>
-      <c r="E83" s="180"/>
+      <c r="B83" s="179"/>
+      <c r="C83" s="179"/>
+      <c r="D83" s="179"/>
+      <c r="E83" s="179"/>
       <c r="F83" s="58"/>
       <c r="G83" s="58"/>
       <c r="H83" s="58"/>
     </row>
     <row r="84" spans="1:8" ht="16.5" customHeight="1">
       <c r="A84" s="43"/>
-      <c r="B84" s="180"/>
-      <c r="C84" s="180"/>
-      <c r="D84" s="180"/>
-      <c r="E84" s="180"/>
+      <c r="B84" s="179"/>
+      <c r="C84" s="179"/>
+      <c r="D84" s="179"/>
+      <c r="E84" s="179"/>
       <c r="F84" s="58"/>
       <c r="G84" s="58"/>
       <c r="H84" s="58"/>
     </row>
     <row r="85" spans="1:8" ht="16.5" customHeight="1">
       <c r="A85" s="43"/>
-      <c r="B85" s="180"/>
-      <c r="C85" s="180"/>
-      <c r="D85" s="180"/>
-      <c r="E85" s="180"/>
+      <c r="B85" s="179"/>
+      <c r="C85" s="179"/>
+      <c r="D85" s="179"/>
+      <c r="E85" s="179"/>
       <c r="F85" s="58"/>
       <c r="G85" s="58"/>
       <c r="H85" s="58"/>
     </row>
     <row r="86" spans="1:8" ht="16.5" customHeight="1">
       <c r="A86" s="43"/>
-      <c r="B86" s="180"/>
-      <c r="C86" s="180"/>
-      <c r="D86" s="180"/>
-      <c r="E86" s="180"/>
+      <c r="B86" s="179"/>
+      <c r="C86" s="179"/>
+      <c r="D86" s="179"/>
+      <c r="E86" s="179"/>
       <c r="F86" s="58"/>
       <c r="G86" s="58"/>
       <c r="H86" s="58"/>
@@ -6045,16 +6043,6 @@
     <mergeCell ref="B67:E67"/>
     <mergeCell ref="B68:E68"/>
     <mergeCell ref="B69:E69"/>
-    <mergeCell ref="C62:E62"/>
-    <mergeCell ref="C63:E63"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="C58:E58"/>
-    <mergeCell ref="B52:E52"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="C59:E59"/>
-    <mergeCell ref="C22:E22"/>
     <mergeCell ref="C31:E31"/>
     <mergeCell ref="C24:E24"/>
     <mergeCell ref="C60:E60"/>
@@ -6063,6 +6051,14 @@
     <mergeCell ref="C35:E35"/>
     <mergeCell ref="B36:E36"/>
     <mergeCell ref="C37:E37"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="C48:E48"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="D8:E8"/>
@@ -6070,27 +6066,29 @@
     <mergeCell ref="C23:E23"/>
     <mergeCell ref="B19:E19"/>
     <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="C39:E39"/>
     <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="C22:E22"/>
     <mergeCell ref="C64:E64"/>
     <mergeCell ref="C57:E57"/>
     <mergeCell ref="C55:E55"/>
     <mergeCell ref="C56:E56"/>
     <mergeCell ref="C44:E44"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="C63:E63"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="C38:E38"/>
     <mergeCell ref="C40:E40"/>
     <mergeCell ref="C41:E41"/>
     <mergeCell ref="C45:E45"/>
     <mergeCell ref="C46:E46"/>
     <mergeCell ref="C42:E42"/>
     <mergeCell ref="C43:E43"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="C38:E38"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6107,8 +6105,8 @@
   </sheetPr>
   <dimension ref="A3:Y48"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23:M24"/>
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -6129,90 +6127,90 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:25" ht="18" customHeight="1">
-      <c r="B3" s="187" t="s">
+      <c r="B3" s="186" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="187"/>
-      <c r="D3" s="187"/>
-      <c r="E3" s="187"/>
-      <c r="F3" s="187"/>
-      <c r="G3" s="187"/>
-      <c r="H3" s="187"/>
-      <c r="I3" s="187"/>
-      <c r="J3" s="187"/>
-      <c r="K3" s="187"/>
-      <c r="L3" s="187"/>
-      <c r="M3" s="187"/>
-      <c r="N3" s="187"/>
+      <c r="C3" s="186"/>
+      <c r="D3" s="186"/>
+      <c r="E3" s="186"/>
+      <c r="F3" s="186"/>
+      <c r="G3" s="186"/>
+      <c r="H3" s="186"/>
+      <c r="I3" s="186"/>
+      <c r="J3" s="186"/>
+      <c r="K3" s="186"/>
+      <c r="L3" s="186"/>
+      <c r="M3" s="186"/>
+      <c r="N3" s="186"/>
     </row>
     <row r="4" spans="2:25" ht="11.25" customHeight="1">
       <c r="B4" s="4"/>
     </row>
     <row r="5" spans="2:25" ht="15" customHeight="1"/>
     <row r="6" spans="2:25" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="B6" s="182" t="s">
-        <v>115</v>
-      </c>
-      <c r="C6" s="183"/>
-      <c r="D6" s="184" t="s">
-        <v>161</v>
-      </c>
-      <c r="E6" s="185"/>
-      <c r="F6" s="186"/>
-      <c r="G6" s="188"/>
-      <c r="H6" s="188"/>
+      <c r="B6" s="181" t="s">
+        <v>114</v>
+      </c>
+      <c r="C6" s="182"/>
+      <c r="D6" s="183" t="s">
+        <v>160</v>
+      </c>
+      <c r="E6" s="184"/>
+      <c r="F6" s="185"/>
+      <c r="G6" s="187"/>
+      <c r="H6" s="187"/>
       <c r="Y6" s="3"/>
     </row>
     <row r="7" spans="2:25" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="B7" s="182" t="s">
-        <v>117</v>
-      </c>
-      <c r="C7" s="183"/>
-      <c r="D7" s="184" t="s">
+      <c r="B7" s="181" t="s">
+        <v>116</v>
+      </c>
+      <c r="C7" s="182"/>
+      <c r="D7" s="183" t="s">
+        <v>162</v>
+      </c>
+      <c r="E7" s="184"/>
+      <c r="F7" s="185"/>
+      <c r="Y7" s="3"/>
+    </row>
+    <row r="8" spans="2:25" s="5" customFormat="1" ht="15" customHeight="1">
+      <c r="B8" s="181" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="182"/>
+      <c r="D8" s="183" t="s">
         <v>163</v>
       </c>
-      <c r="E7" s="185"/>
-      <c r="F7" s="186"/>
-      <c r="Y7" s="3"/>
-    </row>
-    <row r="8" spans="2:25" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="B8" s="182" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="183"/>
-      <c r="D8" s="184" t="s">
-        <v>164</v>
-      </c>
-      <c r="E8" s="185"/>
-      <c r="F8" s="186"/>
+      <c r="E8" s="184"/>
+      <c r="F8" s="185"/>
       <c r="Y8" s="3"/>
     </row>
     <row r="9" spans="2:25" s="5" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B9" s="182" t="s">
+      <c r="B9" s="181" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="183"/>
-      <c r="D9" s="108">
+      <c r="C9" s="182"/>
+      <c r="D9" s="105">
         <v>41226</v>
       </c>
-      <c r="E9" s="109" t="s">
+      <c r="E9" s="106" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="128">
-        <v>41227</v>
+      <c r="F9" s="125">
+        <v>41260</v>
       </c>
       <c r="Y9" s="3"/>
     </row>
     <row r="10" spans="2:25" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="B10" s="182" t="s">
+      <c r="B10" s="181" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="183"/>
-      <c r="D10" s="184" t="s">
-        <v>198</v>
-      </c>
-      <c r="E10" s="185"/>
-      <c r="F10" s="186"/>
+      <c r="C10" s="182"/>
+      <c r="D10" s="183" t="s">
+        <v>197</v>
+      </c>
+      <c r="E10" s="184"/>
+      <c r="F10" s="185"/>
       <c r="Y10" s="3"/>
     </row>
     <row r="11" spans="2:25" s="20" customFormat="1" ht="15" customHeight="1">
@@ -6227,16 +6225,16 @@
         <v>32</v>
       </c>
       <c r="C12" s="37" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>103</v>
       </c>
       <c r="E12" s="36" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G12" s="11" t="s">
         <v>23</v>
@@ -6260,907 +6258,933 @@
         <v>15</v>
       </c>
       <c r="N12" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13" spans="2:25" ht="24">
       <c r="B13" s="37">
         <v>1</v>
       </c>
-      <c r="C13" s="102" t="s">
-        <v>153</v>
-      </c>
-      <c r="D13" s="102" t="s">
-        <v>166</v>
-      </c>
-      <c r="E13" s="141" t="s">
-        <v>182</v>
-      </c>
-      <c r="F13" s="103" t="s">
+      <c r="C13" s="99" t="s">
+        <v>152</v>
+      </c>
+      <c r="D13" s="99" t="s">
+        <v>165</v>
+      </c>
+      <c r="E13" s="137" t="s">
+        <v>181</v>
+      </c>
+      <c r="F13" s="100" t="s">
+        <v>194</v>
+      </c>
+      <c r="G13" s="100" t="s">
         <v>195</v>
       </c>
-      <c r="G13" s="103" t="s">
-        <v>196</v>
-      </c>
-      <c r="H13" s="104">
+      <c r="H13" s="101">
         <v>41157</v>
       </c>
-      <c r="I13" s="104">
+      <c r="I13" s="101">
         <v>41158</v>
       </c>
-      <c r="J13" s="130">
+      <c r="J13" s="127">
         <v>3</v>
       </c>
-      <c r="K13" s="104">
+      <c r="K13" s="101">
         <v>41157</v>
       </c>
-      <c r="L13" s="104">
+      <c r="L13" s="101">
         <v>41158</v>
       </c>
-      <c r="M13" s="130">
+      <c r="M13" s="127">
         <v>3</v>
       </c>
-      <c r="N13" s="105"/>
+      <c r="N13" s="102"/>
     </row>
     <row r="14" spans="2:25" ht="24">
       <c r="B14" s="37">
         <v>2</v>
       </c>
-      <c r="C14" s="102" t="s">
-        <v>153</v>
-      </c>
-      <c r="D14" s="102" t="s">
-        <v>170</v>
-      </c>
-      <c r="E14" s="141" t="s">
-        <v>183</v>
-      </c>
-      <c r="F14" s="103" t="s">
+      <c r="C14" s="99" t="s">
+        <v>152</v>
+      </c>
+      <c r="D14" s="99" t="s">
+        <v>169</v>
+      </c>
+      <c r="E14" s="137" t="s">
+        <v>182</v>
+      </c>
+      <c r="F14" s="100" t="s">
+        <v>194</v>
+      </c>
+      <c r="G14" s="100" t="s">
         <v>195</v>
       </c>
-      <c r="G14" s="103" t="s">
-        <v>196</v>
-      </c>
-      <c r="H14" s="104">
+      <c r="H14" s="101">
         <v>41159</v>
       </c>
-      <c r="I14" s="104">
+      <c r="I14" s="101">
         <v>41160</v>
       </c>
-      <c r="J14" s="130">
+      <c r="J14" s="127">
         <v>2</v>
       </c>
-      <c r="K14" s="104">
+      <c r="K14" s="101">
         <v>41159</v>
       </c>
-      <c r="L14" s="104">
+      <c r="L14" s="101">
         <v>41160</v>
       </c>
-      <c r="M14" s="130">
+      <c r="M14" s="127">
         <v>2</v>
       </c>
-      <c r="N14" s="105"/>
+      <c r="N14" s="102"/>
     </row>
     <row r="15" spans="2:25" ht="36">
       <c r="B15" s="37">
         <v>3</v>
       </c>
-      <c r="C15" s="102" t="s">
-        <v>153</v>
-      </c>
-      <c r="D15" s="102" t="s">
-        <v>174</v>
-      </c>
-      <c r="E15" s="141" t="s">
-        <v>184</v>
-      </c>
-      <c r="F15" s="103" t="s">
+      <c r="C15" s="99" t="s">
+        <v>152</v>
+      </c>
+      <c r="D15" s="99" t="s">
+        <v>173</v>
+      </c>
+      <c r="E15" s="137" t="s">
+        <v>183</v>
+      </c>
+      <c r="F15" s="100" t="s">
+        <v>194</v>
+      </c>
+      <c r="G15" s="100" t="s">
         <v>195</v>
       </c>
-      <c r="G15" s="103" t="s">
-        <v>196</v>
-      </c>
-      <c r="H15" s="104">
+      <c r="H15" s="101">
         <v>41163</v>
       </c>
-      <c r="I15" s="104">
+      <c r="I15" s="101">
         <v>41164</v>
       </c>
-      <c r="J15" s="130">
+      <c r="J15" s="127">
         <v>6</v>
       </c>
-      <c r="K15" s="104">
+      <c r="K15" s="101">
         <v>41163</v>
       </c>
-      <c r="L15" s="104">
+      <c r="L15" s="101">
         <v>41165</v>
       </c>
-      <c r="M15" s="130">
+      <c r="M15" s="127">
         <v>8</v>
       </c>
-      <c r="N15" s="105" t="s">
-        <v>209</v>
+      <c r="N15" s="102" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="16" spans="2:25" ht="24">
       <c r="B16" s="37">
         <v>4</v>
       </c>
-      <c r="C16" s="102" t="s">
-        <v>153</v>
-      </c>
-      <c r="D16" s="102" t="s">
-        <v>181</v>
-      </c>
-      <c r="E16" s="141" t="s">
-        <v>185</v>
-      </c>
-      <c r="F16" s="103" t="s">
+      <c r="C16" s="99" t="s">
+        <v>152</v>
+      </c>
+      <c r="D16" s="99" t="s">
+        <v>180</v>
+      </c>
+      <c r="E16" s="137" t="s">
+        <v>184</v>
+      </c>
+      <c r="F16" s="100" t="s">
+        <v>194</v>
+      </c>
+      <c r="G16" s="100" t="s">
         <v>195</v>
       </c>
-      <c r="G16" s="103" t="s">
-        <v>196</v>
-      </c>
-      <c r="H16" s="104">
+      <c r="H16" s="101">
         <v>41166</v>
       </c>
-      <c r="I16" s="104">
+      <c r="I16" s="101">
         <v>41166</v>
       </c>
-      <c r="J16" s="130">
+      <c r="J16" s="127">
         <v>1</v>
       </c>
-      <c r="K16" s="104">
+      <c r="K16" s="101">
         <v>41166</v>
       </c>
-      <c r="L16" s="104">
+      <c r="L16" s="101">
         <v>41166</v>
       </c>
-      <c r="M16" s="130">
+      <c r="M16" s="127">
         <v>1</v>
       </c>
-      <c r="N16" s="105"/>
+      <c r="N16" s="102"/>
     </row>
     <row r="17" spans="2:14" ht="36">
       <c r="B17" s="37">
         <v>5</v>
       </c>
-      <c r="C17" s="102" t="s">
+      <c r="C17" s="99" t="s">
+        <v>152</v>
+      </c>
+      <c r="D17" s="99" t="s">
+        <v>167</v>
+      </c>
+      <c r="E17" s="138" t="s">
         <v>153</v>
       </c>
-      <c r="D17" s="102" t="s">
-        <v>168</v>
-      </c>
-      <c r="E17" s="142" t="s">
-        <v>154</v>
-      </c>
-      <c r="F17" s="103" t="s">
+      <c r="F17" s="100" t="s">
+        <v>194</v>
+      </c>
+      <c r="G17" s="100" t="s">
         <v>195</v>
       </c>
-      <c r="G17" s="103" t="s">
-        <v>196</v>
-      </c>
-      <c r="H17" s="104">
+      <c r="H17" s="101">
         <v>41171</v>
       </c>
-      <c r="I17" s="104">
+      <c r="I17" s="101">
         <v>41172</v>
       </c>
-      <c r="J17" s="130">
+      <c r="J17" s="127">
         <v>2</v>
       </c>
-      <c r="K17" s="104">
+      <c r="K17" s="101">
         <v>41171</v>
       </c>
-      <c r="L17" s="104">
+      <c r="L17" s="101">
         <v>41172</v>
       </c>
-      <c r="M17" s="130">
+      <c r="M17" s="127">
         <v>4</v>
       </c>
-      <c r="N17" s="105" t="s">
-        <v>199</v>
+      <c r="N17" s="102" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="18" spans="2:14" ht="24">
       <c r="B18" s="37">
         <v>6</v>
       </c>
-      <c r="C18" s="102" t="s">
-        <v>153</v>
-      </c>
-      <c r="D18" s="102" t="s">
-        <v>171</v>
-      </c>
-      <c r="E18" s="141" t="s">
-        <v>186</v>
-      </c>
-      <c r="F18" s="103" t="s">
+      <c r="C18" s="99" t="s">
+        <v>152</v>
+      </c>
+      <c r="D18" s="99" t="s">
+        <v>170</v>
+      </c>
+      <c r="E18" s="137" t="s">
+        <v>185</v>
+      </c>
+      <c r="F18" s="100" t="s">
+        <v>194</v>
+      </c>
+      <c r="G18" s="100" t="s">
         <v>195</v>
       </c>
-      <c r="G18" s="103" t="s">
-        <v>196</v>
-      </c>
-      <c r="H18" s="104">
+      <c r="H18" s="101">
         <v>41173</v>
       </c>
-      <c r="I18" s="104">
+      <c r="I18" s="101">
         <v>41173</v>
       </c>
-      <c r="J18" s="130">
+      <c r="J18" s="127">
         <v>1</v>
       </c>
-      <c r="K18" s="104">
+      <c r="K18" s="101">
         <v>41173</v>
       </c>
-      <c r="L18" s="104">
+      <c r="L18" s="101">
         <v>41173</v>
       </c>
-      <c r="M18" s="130">
+      <c r="M18" s="127">
         <v>1</v>
       </c>
-      <c r="N18" s="105"/>
+      <c r="N18" s="102"/>
     </row>
     <row r="19" spans="2:14" ht="36">
       <c r="B19" s="37">
         <v>7</v>
       </c>
-      <c r="C19" s="102" t="s">
-        <v>153</v>
-      </c>
-      <c r="D19" s="102" t="s">
-        <v>175</v>
-      </c>
-      <c r="E19" s="141" t="s">
-        <v>187</v>
-      </c>
-      <c r="F19" s="103" t="s">
+      <c r="C19" s="99" t="s">
+        <v>152</v>
+      </c>
+      <c r="D19" s="99" t="s">
+        <v>174</v>
+      </c>
+      <c r="E19" s="137" t="s">
+        <v>186</v>
+      </c>
+      <c r="F19" s="100" t="s">
+        <v>194</v>
+      </c>
+      <c r="G19" s="100" t="s">
         <v>195</v>
       </c>
-      <c r="G19" s="103" t="s">
-        <v>196</v>
-      </c>
-      <c r="H19" s="104">
+      <c r="H19" s="101">
         <v>41189</v>
       </c>
-      <c r="I19" s="104">
+      <c r="I19" s="101">
         <v>41190</v>
       </c>
-      <c r="J19" s="130">
+      <c r="J19" s="127">
         <v>5</v>
       </c>
-      <c r="K19" s="104">
+      <c r="K19" s="101">
         <v>41189</v>
       </c>
-      <c r="L19" s="104">
+      <c r="L19" s="101">
         <v>41190</v>
       </c>
-      <c r="M19" s="130">
+      <c r="M19" s="127">
         <v>7</v>
       </c>
-      <c r="N19" s="105" t="s">
-        <v>200</v>
+      <c r="N19" s="102" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="20" spans="2:14" ht="24">
       <c r="B20" s="37">
         <v>8</v>
       </c>
-      <c r="C20" s="102" t="s">
-        <v>153</v>
-      </c>
-      <c r="D20" s="102" t="s">
-        <v>180</v>
-      </c>
-      <c r="E20" s="141" t="s">
-        <v>188</v>
-      </c>
-      <c r="F20" s="103" t="s">
+      <c r="C20" s="99" t="s">
+        <v>152</v>
+      </c>
+      <c r="D20" s="99" t="s">
+        <v>179</v>
+      </c>
+      <c r="E20" s="137" t="s">
+        <v>187</v>
+      </c>
+      <c r="F20" s="100" t="s">
+        <v>194</v>
+      </c>
+      <c r="G20" s="100" t="s">
         <v>195</v>
       </c>
-      <c r="G20" s="103" t="s">
-        <v>196</v>
-      </c>
-      <c r="H20" s="104">
+      <c r="H20" s="101">
         <v>41193</v>
       </c>
-      <c r="I20" s="104">
+      <c r="I20" s="101">
         <v>41193</v>
       </c>
-      <c r="J20" s="130">
+      <c r="J20" s="127">
         <v>3</v>
       </c>
-      <c r="K20" s="104">
+      <c r="K20" s="101">
         <v>41193</v>
       </c>
-      <c r="L20" s="104">
+      <c r="L20" s="101">
         <v>41193</v>
       </c>
-      <c r="M20" s="130">
+      <c r="M20" s="127">
         <v>3</v>
       </c>
-      <c r="N20" s="105"/>
+      <c r="N20" s="102"/>
     </row>
     <row r="21" spans="2:14" ht="24">
       <c r="B21" s="37">
         <v>9</v>
       </c>
-      <c r="C21" s="102" t="s">
-        <v>153</v>
-      </c>
-      <c r="D21" s="102" t="s">
-        <v>169</v>
-      </c>
-      <c r="E21" s="141" t="s">
-        <v>189</v>
-      </c>
-      <c r="F21" s="103" t="s">
+      <c r="C21" s="99" t="s">
+        <v>152</v>
+      </c>
+      <c r="D21" s="99" t="s">
+        <v>168</v>
+      </c>
+      <c r="E21" s="137" t="s">
+        <v>188</v>
+      </c>
+      <c r="F21" s="100" t="s">
+        <v>194</v>
+      </c>
+      <c r="G21" s="100" t="s">
         <v>195</v>
       </c>
-      <c r="G21" s="103" t="s">
-        <v>196</v>
-      </c>
-      <c r="H21" s="104">
+      <c r="H21" s="101">
         <v>41196</v>
       </c>
-      <c r="I21" s="104">
+      <c r="I21" s="101">
         <v>41197</v>
       </c>
-      <c r="J21" s="130">
+      <c r="J21" s="127">
         <v>6</v>
       </c>
-      <c r="K21" s="104">
+      <c r="K21" s="101">
         <v>41196</v>
       </c>
-      <c r="L21" s="104">
+      <c r="L21" s="101">
         <v>41197</v>
       </c>
-      <c r="M21" s="130">
+      <c r="M21" s="127">
         <v>6</v>
       </c>
-      <c r="N21" s="105"/>
+      <c r="N21" s="102"/>
     </row>
     <row r="22" spans="2:14" ht="36">
       <c r="B22" s="37">
         <v>10</v>
       </c>
-      <c r="C22" s="102" t="s">
-        <v>153</v>
-      </c>
-      <c r="D22" s="102" t="s">
-        <v>172</v>
-      </c>
-      <c r="E22" s="141" t="s">
+      <c r="C22" s="99" t="s">
+        <v>152</v>
+      </c>
+      <c r="D22" s="99" t="s">
+        <v>171</v>
+      </c>
+      <c r="E22" s="137" t="s">
+        <v>193</v>
+      </c>
+      <c r="F22" s="100" t="s">
         <v>194</v>
       </c>
-      <c r="F22" s="103" t="s">
+      <c r="G22" s="100" t="s">
         <v>195</v>
       </c>
-      <c r="G22" s="103" t="s">
-        <v>196</v>
-      </c>
-      <c r="H22" s="104">
+      <c r="H22" s="101">
         <v>41201</v>
       </c>
-      <c r="I22" s="104">
+      <c r="I22" s="101">
         <v>41204</v>
       </c>
-      <c r="J22" s="130">
+      <c r="J22" s="127">
         <v>8</v>
       </c>
-      <c r="K22" s="104">
+      <c r="K22" s="101">
         <v>41203</v>
       </c>
-      <c r="L22" s="104">
+      <c r="L22" s="101">
         <v>41207</v>
       </c>
-      <c r="M22" s="130">
+      <c r="M22" s="127">
         <v>8</v>
       </c>
-      <c r="N22" s="105" t="s">
-        <v>201</v>
+      <c r="N22" s="102" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="23" spans="2:14" ht="24">
       <c r="B23" s="37">
         <v>11</v>
       </c>
-      <c r="C23" s="102" t="s">
-        <v>153</v>
-      </c>
-      <c r="D23" s="102" t="s">
-        <v>176</v>
-      </c>
-      <c r="E23" s="141" t="s">
-        <v>190</v>
-      </c>
-      <c r="F23" s="103" t="s">
+      <c r="C23" s="99" t="s">
+        <v>152</v>
+      </c>
+      <c r="D23" s="99" t="s">
+        <v>175</v>
+      </c>
+      <c r="E23" s="137" t="s">
+        <v>189</v>
+      </c>
+      <c r="F23" s="100" t="s">
+        <v>194</v>
+      </c>
+      <c r="G23" s="100" t="s">
         <v>195</v>
       </c>
-      <c r="G23" s="103" t="s">
-        <v>196</v>
-      </c>
-      <c r="H23" s="104">
+      <c r="H23" s="101">
         <v>41224</v>
       </c>
-      <c r="I23" s="104">
+      <c r="I23" s="101">
         <v>41226</v>
       </c>
-      <c r="J23" s="130">
+      <c r="J23" s="127">
         <v>8</v>
       </c>
-      <c r="K23" s="104">
+      <c r="K23" s="101">
+        <v>41221</v>
+      </c>
+      <c r="L23" s="101">
         <v>41224</v>
       </c>
-      <c r="L23" s="104">
-        <v>41226</v>
-      </c>
-      <c r="M23" s="130">
+      <c r="M23" s="127">
         <v>8</v>
       </c>
-      <c r="N23" s="105"/>
+      <c r="N23" s="102"/>
     </row>
     <row r="24" spans="2:14" ht="24">
       <c r="B24" s="37">
         <v>12</v>
       </c>
-      <c r="C24" s="102" t="s">
-        <v>153</v>
-      </c>
-      <c r="D24" s="102" t="s">
-        <v>179</v>
-      </c>
-      <c r="E24" s="141" t="s">
-        <v>188</v>
-      </c>
-      <c r="F24" s="103" t="s">
+      <c r="C24" s="99" t="s">
+        <v>152</v>
+      </c>
+      <c r="D24" s="99" t="s">
+        <v>178</v>
+      </c>
+      <c r="E24" s="137" t="s">
+        <v>187</v>
+      </c>
+      <c r="F24" s="100" t="s">
+        <v>194</v>
+      </c>
+      <c r="G24" s="100" t="s">
         <v>195</v>
       </c>
-      <c r="G24" s="103" t="s">
-        <v>196</v>
-      </c>
-      <c r="H24" s="104">
+      <c r="H24" s="101">
         <v>41228</v>
       </c>
-      <c r="I24" s="104">
+      <c r="I24" s="101">
         <v>41228</v>
       </c>
-      <c r="J24" s="130">
+      <c r="J24" s="127">
         <v>2</v>
       </c>
-      <c r="K24" s="104">
-        <v>41228</v>
-      </c>
-      <c r="L24" s="104">
-        <v>41228</v>
-      </c>
-      <c r="M24" s="130">
+      <c r="K24" s="101">
+        <v>41226</v>
+      </c>
+      <c r="L24" s="101">
+        <v>41226</v>
+      </c>
+      <c r="M24" s="127">
         <v>2</v>
       </c>
-      <c r="N24" s="105"/>
-    </row>
-    <row r="25" spans="2:14" ht="24">
-      <c r="B25" s="37">
+      <c r="N24" s="102"/>
+    </row>
+    <row r="25" spans="2:14" s="146" customFormat="1" ht="24">
+      <c r="B25" s="147">
         <v>13</v>
       </c>
-      <c r="C25" s="143" t="s">
-        <v>153</v>
-      </c>
-      <c r="D25" s="143" t="s">
-        <v>167</v>
-      </c>
-      <c r="E25" s="144" t="s">
+      <c r="C25" s="140" t="s">
+        <v>152</v>
+      </c>
+      <c r="D25" s="140" t="s">
+        <v>166</v>
+      </c>
+      <c r="E25" s="141" t="s">
+        <v>190</v>
+      </c>
+      <c r="F25" s="142" t="s">
+        <v>194</v>
+      </c>
+      <c r="G25" s="142" t="s">
+        <v>195</v>
+      </c>
+      <c r="H25" s="143">
+        <v>41233</v>
+      </c>
+      <c r="I25" s="143">
+        <v>41236</v>
+      </c>
+      <c r="J25" s="144">
+        <v>8</v>
+      </c>
+      <c r="K25" s="143">
+        <v>41229</v>
+      </c>
+      <c r="L25" s="143">
+        <v>41229</v>
+      </c>
+      <c r="M25" s="144">
+        <v>8</v>
+      </c>
+      <c r="N25" s="145"/>
+    </row>
+    <row r="26" spans="2:14" s="146" customFormat="1" ht="24">
+      <c r="B26" s="147">
+        <v>14</v>
+      </c>
+      <c r="C26" s="140" t="s">
+        <v>152</v>
+      </c>
+      <c r="D26" s="140" t="s">
+        <v>172</v>
+      </c>
+      <c r="E26" s="141" t="s">
         <v>191</v>
       </c>
-      <c r="F25" s="145" t="s">
+      <c r="F26" s="142" t="s">
+        <v>194</v>
+      </c>
+      <c r="G26" s="142" t="s">
         <v>195</v>
       </c>
-      <c r="G25" s="145" t="s">
-        <v>196</v>
-      </c>
-      <c r="H25" s="146">
-        <v>41233</v>
-      </c>
-      <c r="I25" s="146">
+      <c r="H26" s="143">
+        <v>41240</v>
+      </c>
+      <c r="I26" s="143">
+        <v>41240</v>
+      </c>
+      <c r="J26" s="144">
+        <v>2</v>
+      </c>
+      <c r="K26" s="143">
         <v>41236</v>
       </c>
-      <c r="J25" s="147">
-        <v>8</v>
-      </c>
-      <c r="K25" s="146"/>
-      <c r="L25" s="146"/>
-      <c r="M25" s="147"/>
-      <c r="N25" s="148"/>
-    </row>
-    <row r="26" spans="2:14" ht="24">
-      <c r="B26" s="37">
-        <v>14</v>
-      </c>
-      <c r="C26" s="143" t="s">
-        <v>153</v>
-      </c>
-      <c r="D26" s="143" t="s">
-        <v>173</v>
-      </c>
-      <c r="E26" s="144" t="s">
+      <c r="L26" s="143">
+        <v>41236</v>
+      </c>
+      <c r="M26" s="144">
+        <v>2</v>
+      </c>
+      <c r="N26" s="145"/>
+    </row>
+    <row r="27" spans="2:14" s="146" customFormat="1" ht="48">
+      <c r="B27" s="147">
+        <v>15</v>
+      </c>
+      <c r="C27" s="140" t="s">
+        <v>152</v>
+      </c>
+      <c r="D27" s="140" t="s">
+        <v>176</v>
+      </c>
+      <c r="E27" s="141" t="s">
+        <v>151</v>
+      </c>
+      <c r="F27" s="142" t="s">
+        <v>194</v>
+      </c>
+      <c r="G27" s="142" t="s">
+        <v>195</v>
+      </c>
+      <c r="H27" s="143">
+        <v>41243</v>
+      </c>
+      <c r="I27" s="143">
+        <v>41248</v>
+      </c>
+      <c r="J27" s="144">
+        <v>10</v>
+      </c>
+      <c r="K27" s="143">
+        <v>41254</v>
+      </c>
+      <c r="L27" s="143">
+        <v>41226</v>
+      </c>
+      <c r="M27" s="144">
+        <v>10</v>
+      </c>
+      <c r="N27" s="145" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" s="146" customFormat="1" ht="24">
+      <c r="B28" s="147">
+        <v>16</v>
+      </c>
+      <c r="C28" s="140" t="s">
+        <v>152</v>
+      </c>
+      <c r="D28" s="140" t="s">
+        <v>166</v>
+      </c>
+      <c r="E28" s="141" t="s">
         <v>192</v>
       </c>
-      <c r="F26" s="145" t="s">
+      <c r="F28" s="142" t="s">
+        <v>194</v>
+      </c>
+      <c r="G28" s="142" t="s">
         <v>195</v>
       </c>
-      <c r="G26" s="145" t="s">
-        <v>196</v>
-      </c>
-      <c r="H26" s="146">
-        <v>41240</v>
-      </c>
-      <c r="I26" s="146">
-        <v>41240</v>
-      </c>
-      <c r="J26" s="147">
+      <c r="H28" s="143">
+        <v>41275</v>
+      </c>
+      <c r="I28" s="143">
+        <v>41276</v>
+      </c>
+      <c r="J28" s="144">
         <v>2</v>
       </c>
-      <c r="K26" s="146"/>
-      <c r="L26" s="146"/>
-      <c r="M26" s="147"/>
-      <c r="N26" s="148"/>
-    </row>
-    <row r="27" spans="2:14" ht="24">
-      <c r="B27" s="37">
-        <v>15</v>
-      </c>
-      <c r="C27" s="143" t="s">
-        <v>153</v>
-      </c>
-      <c r="D27" s="143" t="s">
-        <v>177</v>
-      </c>
-      <c r="E27" s="144" t="s">
-        <v>152</v>
-      </c>
-      <c r="F27" s="145" t="s">
-        <v>195</v>
-      </c>
-      <c r="G27" s="145" t="s">
-        <v>196</v>
-      </c>
-      <c r="H27" s="146">
-        <v>41243</v>
-      </c>
-      <c r="I27" s="146">
-        <v>41248</v>
-      </c>
-      <c r="J27" s="147">
-        <v>10</v>
-      </c>
-      <c r="K27" s="146"/>
-      <c r="L27" s="146"/>
-      <c r="M27" s="147"/>
-      <c r="N27" s="148"/>
-    </row>
-    <row r="28" spans="2:14" ht="24">
-      <c r="B28" s="37">
-        <v>16</v>
-      </c>
-      <c r="C28" s="143" t="s">
-        <v>153</v>
-      </c>
-      <c r="D28" s="143" t="s">
-        <v>167</v>
-      </c>
-      <c r="E28" s="144" t="s">
-        <v>193</v>
-      </c>
-      <c r="F28" s="145" t="s">
-        <v>195</v>
-      </c>
-      <c r="G28" s="145" t="s">
-        <v>196</v>
-      </c>
-      <c r="H28" s="146">
-        <v>41275</v>
-      </c>
-      <c r="I28" s="146">
-        <v>41276</v>
-      </c>
-      <c r="J28" s="147">
-        <v>5</v>
-      </c>
-      <c r="K28" s="146"/>
-      <c r="L28" s="146"/>
-      <c r="M28" s="147"/>
-      <c r="N28" s="148"/>
+      <c r="K28" s="143">
+        <v>41260</v>
+      </c>
+      <c r="L28" s="143">
+        <v>41260</v>
+      </c>
+      <c r="M28" s="144">
+        <v>2</v>
+      </c>
+      <c r="N28" s="145"/>
     </row>
     <row r="29" spans="2:14">
       <c r="B29" s="37">
         <v>17</v>
       </c>
-      <c r="C29" s="102"/>
-      <c r="D29" s="102"/>
-      <c r="E29" s="103"/>
-      <c r="F29" s="103"/>
-      <c r="G29" s="103"/>
-      <c r="H29" s="104"/>
-      <c r="I29" s="104"/>
-      <c r="J29" s="130"/>
-      <c r="K29" s="104"/>
-      <c r="L29" s="104"/>
-      <c r="M29" s="105"/>
-      <c r="N29" s="105"/>
+      <c r="C29" s="99"/>
+      <c r="D29" s="99"/>
+      <c r="E29" s="100"/>
+      <c r="F29" s="100"/>
+      <c r="G29" s="100"/>
+      <c r="H29" s="101"/>
+      <c r="I29" s="101"/>
+      <c r="J29" s="127"/>
+      <c r="K29" s="101"/>
+      <c r="L29" s="101"/>
+      <c r="M29" s="102"/>
+      <c r="N29" s="102"/>
     </row>
     <row r="30" spans="2:14">
       <c r="B30" s="37">
         <v>18</v>
       </c>
-      <c r="C30" s="102"/>
-      <c r="D30" s="102"/>
-      <c r="E30" s="103"/>
-      <c r="F30" s="103"/>
-      <c r="G30" s="103"/>
-      <c r="H30" s="104"/>
-      <c r="I30" s="104"/>
-      <c r="J30" s="130"/>
-      <c r="K30" s="104"/>
-      <c r="L30" s="104"/>
-      <c r="M30" s="105"/>
-      <c r="N30" s="105"/>
+      <c r="C30" s="99"/>
+      <c r="D30" s="99"/>
+      <c r="E30" s="100"/>
+      <c r="F30" s="100"/>
+      <c r="G30" s="100"/>
+      <c r="H30" s="101"/>
+      <c r="I30" s="101"/>
+      <c r="J30" s="127"/>
+      <c r="K30" s="101"/>
+      <c r="L30" s="101"/>
+      <c r="M30" s="102"/>
+      <c r="N30" s="102"/>
     </row>
     <row r="31" spans="2:14">
       <c r="B31" s="37">
         <v>19</v>
       </c>
-      <c r="C31" s="102"/>
-      <c r="D31" s="102"/>
-      <c r="E31" s="103"/>
-      <c r="F31" s="103"/>
-      <c r="G31" s="103"/>
-      <c r="H31" s="104"/>
-      <c r="I31" s="104"/>
-      <c r="J31" s="130"/>
-      <c r="K31" s="104"/>
-      <c r="L31" s="104"/>
-      <c r="M31" s="105"/>
-      <c r="N31" s="105"/>
+      <c r="C31" s="99"/>
+      <c r="D31" s="99"/>
+      <c r="E31" s="100"/>
+      <c r="F31" s="100"/>
+      <c r="G31" s="100"/>
+      <c r="H31" s="101"/>
+      <c r="I31" s="101"/>
+      <c r="J31" s="127"/>
+      <c r="K31" s="101"/>
+      <c r="L31" s="101"/>
+      <c r="M31" s="102"/>
+      <c r="N31" s="102"/>
     </row>
     <row r="32" spans="2:14">
       <c r="B32" s="37">
         <v>20</v>
       </c>
-      <c r="C32" s="102"/>
-      <c r="D32" s="102"/>
-      <c r="E32" s="103"/>
-      <c r="F32" s="103"/>
-      <c r="G32" s="103"/>
-      <c r="H32" s="104"/>
-      <c r="I32" s="104"/>
-      <c r="J32" s="130"/>
-      <c r="K32" s="104"/>
-      <c r="L32" s="104"/>
-      <c r="M32" s="105"/>
-      <c r="N32" s="105"/>
+      <c r="C32" s="99"/>
+      <c r="D32" s="99"/>
+      <c r="E32" s="100"/>
+      <c r="F32" s="100"/>
+      <c r="G32" s="100"/>
+      <c r="H32" s="101"/>
+      <c r="I32" s="101"/>
+      <c r="J32" s="127"/>
+      <c r="K32" s="101"/>
+      <c r="L32" s="101"/>
+      <c r="M32" s="102"/>
+      <c r="N32" s="102"/>
     </row>
     <row r="33" spans="1:14">
       <c r="B33" s="37">
         <v>21</v>
       </c>
-      <c r="C33" s="102"/>
-      <c r="D33" s="102"/>
-      <c r="E33" s="103"/>
-      <c r="F33" s="103"/>
-      <c r="G33" s="103"/>
-      <c r="H33" s="104"/>
-      <c r="I33" s="104"/>
-      <c r="J33" s="130"/>
-      <c r="K33" s="104"/>
-      <c r="L33" s="104"/>
-      <c r="M33" s="105"/>
-      <c r="N33" s="105"/>
+      <c r="C33" s="99"/>
+      <c r="D33" s="99"/>
+      <c r="E33" s="100"/>
+      <c r="F33" s="100"/>
+      <c r="G33" s="100"/>
+      <c r="H33" s="101"/>
+      <c r="I33" s="101"/>
+      <c r="J33" s="127"/>
+      <c r="K33" s="101"/>
+      <c r="L33" s="101"/>
+      <c r="M33" s="102"/>
+      <c r="N33" s="102"/>
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="10"/>
       <c r="B34" s="37">
         <v>33</v>
       </c>
-      <c r="C34" s="102"/>
-      <c r="D34" s="102"/>
-      <c r="E34" s="103"/>
-      <c r="F34" s="103"/>
-      <c r="G34" s="103"/>
-      <c r="H34" s="104"/>
-      <c r="I34" s="104"/>
-      <c r="J34" s="130"/>
-      <c r="K34" s="104"/>
-      <c r="L34" s="104"/>
-      <c r="M34" s="105"/>
-      <c r="N34" s="105"/>
+      <c r="C34" s="99"/>
+      <c r="D34" s="99"/>
+      <c r="E34" s="100"/>
+      <c r="F34" s="100"/>
+      <c r="G34" s="100"/>
+      <c r="H34" s="101"/>
+      <c r="I34" s="101"/>
+      <c r="J34" s="127"/>
+      <c r="K34" s="101"/>
+      <c r="L34" s="101"/>
+      <c r="M34" s="102"/>
+      <c r="N34" s="102"/>
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="10"/>
       <c r="B35" s="37">
         <v>34</v>
       </c>
-      <c r="C35" s="102"/>
-      <c r="D35" s="102"/>
-      <c r="E35" s="103"/>
-      <c r="F35" s="103"/>
-      <c r="G35" s="103"/>
-      <c r="H35" s="104"/>
-      <c r="I35" s="104"/>
-      <c r="J35" s="130"/>
-      <c r="K35" s="104"/>
-      <c r="L35" s="104"/>
-      <c r="M35" s="105"/>
-      <c r="N35" s="105"/>
+      <c r="C35" s="99"/>
+      <c r="D35" s="99"/>
+      <c r="E35" s="100"/>
+      <c r="F35" s="100"/>
+      <c r="G35" s="100"/>
+      <c r="H35" s="101"/>
+      <c r="I35" s="101"/>
+      <c r="J35" s="127"/>
+      <c r="K35" s="101"/>
+      <c r="L35" s="101"/>
+      <c r="M35" s="102"/>
+      <c r="N35" s="102"/>
     </row>
     <row r="36" spans="1:14">
       <c r="B36" s="37">
         <v>22</v>
       </c>
-      <c r="C36" s="102"/>
-      <c r="D36" s="102"/>
-      <c r="E36" s="103"/>
-      <c r="F36" s="103"/>
-      <c r="G36" s="103"/>
-      <c r="H36" s="104"/>
-      <c r="I36" s="104"/>
-      <c r="J36" s="130"/>
-      <c r="K36" s="104"/>
-      <c r="L36" s="104"/>
-      <c r="M36" s="105"/>
-      <c r="N36" s="105"/>
+      <c r="C36" s="99"/>
+      <c r="D36" s="99"/>
+      <c r="E36" s="100"/>
+      <c r="F36" s="100"/>
+      <c r="G36" s="100"/>
+      <c r="H36" s="101"/>
+      <c r="I36" s="101"/>
+      <c r="J36" s="127"/>
+      <c r="K36" s="101"/>
+      <c r="L36" s="101"/>
+      <c r="M36" s="102"/>
+      <c r="N36" s="102"/>
     </row>
     <row r="37" spans="1:14">
       <c r="B37" s="37">
         <v>23</v>
       </c>
-      <c r="C37" s="102"/>
-      <c r="D37" s="102"/>
-      <c r="E37" s="103"/>
-      <c r="F37" s="103"/>
-      <c r="G37" s="103"/>
-      <c r="H37" s="104"/>
-      <c r="I37" s="104"/>
-      <c r="J37" s="130"/>
-      <c r="K37" s="104"/>
-      <c r="L37" s="104"/>
-      <c r="M37" s="105"/>
-      <c r="N37" s="105"/>
+      <c r="C37" s="99"/>
+      <c r="D37" s="99"/>
+      <c r="E37" s="100"/>
+      <c r="F37" s="100"/>
+      <c r="G37" s="100"/>
+      <c r="H37" s="101"/>
+      <c r="I37" s="101"/>
+      <c r="J37" s="127"/>
+      <c r="K37" s="101"/>
+      <c r="L37" s="101"/>
+      <c r="M37" s="102"/>
+      <c r="N37" s="102"/>
     </row>
     <row r="38" spans="1:14">
       <c r="B38" s="37">
         <v>24</v>
       </c>
-      <c r="C38" s="102"/>
-      <c r="D38" s="102"/>
-      <c r="E38" s="103"/>
-      <c r="F38" s="103"/>
-      <c r="G38" s="103"/>
-      <c r="H38" s="104"/>
-      <c r="I38" s="104"/>
-      <c r="J38" s="130"/>
-      <c r="K38" s="104"/>
-      <c r="L38" s="104"/>
-      <c r="M38" s="105"/>
-      <c r="N38" s="105"/>
+      <c r="C38" s="99"/>
+      <c r="D38" s="99"/>
+      <c r="E38" s="100"/>
+      <c r="F38" s="100"/>
+      <c r="G38" s="100"/>
+      <c r="H38" s="101"/>
+      <c r="I38" s="101"/>
+      <c r="J38" s="127"/>
+      <c r="K38" s="101"/>
+      <c r="L38" s="101"/>
+      <c r="M38" s="102"/>
+      <c r="N38" s="102"/>
     </row>
     <row r="39" spans="1:14">
       <c r="B39" s="37">
         <v>25</v>
       </c>
-      <c r="C39" s="102"/>
-      <c r="D39" s="102"/>
-      <c r="E39" s="103"/>
-      <c r="F39" s="103"/>
-      <c r="G39" s="103"/>
-      <c r="H39" s="104"/>
-      <c r="I39" s="104"/>
-      <c r="J39" s="130"/>
-      <c r="K39" s="104"/>
-      <c r="L39" s="104"/>
-      <c r="M39" s="105"/>
-      <c r="N39" s="105"/>
+      <c r="C39" s="99"/>
+      <c r="D39" s="99"/>
+      <c r="E39" s="100"/>
+      <c r="F39" s="100"/>
+      <c r="G39" s="100"/>
+      <c r="H39" s="101"/>
+      <c r="I39" s="101"/>
+      <c r="J39" s="127"/>
+      <c r="K39" s="101"/>
+      <c r="L39" s="101"/>
+      <c r="M39" s="102"/>
+      <c r="N39" s="102"/>
     </row>
     <row r="40" spans="1:14">
       <c r="B40" s="37">
         <v>26</v>
       </c>
-      <c r="C40" s="102"/>
-      <c r="D40" s="102"/>
-      <c r="E40" s="103"/>
-      <c r="F40" s="103"/>
-      <c r="G40" s="103"/>
-      <c r="H40" s="104"/>
-      <c r="I40" s="104"/>
-      <c r="J40" s="130"/>
-      <c r="K40" s="104"/>
-      <c r="L40" s="104"/>
-      <c r="M40" s="105"/>
-      <c r="N40" s="105"/>
+      <c r="C40" s="99"/>
+      <c r="D40" s="99"/>
+      <c r="E40" s="100"/>
+      <c r="F40" s="100"/>
+      <c r="G40" s="100"/>
+      <c r="H40" s="101"/>
+      <c r="I40" s="101"/>
+      <c r="J40" s="127"/>
+      <c r="K40" s="101"/>
+      <c r="L40" s="101"/>
+      <c r="M40" s="102"/>
+      <c r="N40" s="102"/>
     </row>
     <row r="41" spans="1:14">
       <c r="B41" s="37">
         <v>27</v>
       </c>
-      <c r="C41" s="102"/>
-      <c r="D41" s="102"/>
-      <c r="E41" s="103"/>
-      <c r="F41" s="103"/>
-      <c r="G41" s="103"/>
-      <c r="H41" s="104"/>
-      <c r="I41" s="104"/>
-      <c r="J41" s="130"/>
-      <c r="K41" s="104"/>
-      <c r="L41" s="104"/>
-      <c r="M41" s="105"/>
-      <c r="N41" s="105"/>
+      <c r="C41" s="99"/>
+      <c r="D41" s="99"/>
+      <c r="E41" s="100"/>
+      <c r="F41" s="100"/>
+      <c r="G41" s="100"/>
+      <c r="H41" s="101"/>
+      <c r="I41" s="101"/>
+      <c r="J41" s="127"/>
+      <c r="K41" s="101"/>
+      <c r="L41" s="101"/>
+      <c r="M41" s="102"/>
+      <c r="N41" s="102"/>
     </row>
     <row r="42" spans="1:14">
       <c r="B42" s="37">
         <v>28</v>
       </c>
-      <c r="C42" s="102"/>
-      <c r="D42" s="102"/>
-      <c r="E42" s="103"/>
-      <c r="F42" s="103"/>
-      <c r="G42" s="103"/>
-      <c r="H42" s="104"/>
-      <c r="I42" s="104"/>
-      <c r="J42" s="130"/>
-      <c r="K42" s="104"/>
-      <c r="L42" s="104"/>
-      <c r="M42" s="105"/>
-      <c r="N42" s="105"/>
+      <c r="C42" s="99"/>
+      <c r="D42" s="99"/>
+      <c r="E42" s="100"/>
+      <c r="F42" s="100"/>
+      <c r="G42" s="100"/>
+      <c r="H42" s="101"/>
+      <c r="I42" s="101"/>
+      <c r="J42" s="127"/>
+      <c r="K42" s="101"/>
+      <c r="L42" s="101"/>
+      <c r="M42" s="102"/>
+      <c r="N42" s="102"/>
     </row>
     <row r="43" spans="1:14" ht="12.75" customHeight="1">
       <c r="B43" s="37">
         <v>29</v>
       </c>
-      <c r="C43" s="102"/>
-      <c r="D43" s="102"/>
-      <c r="E43" s="103"/>
-      <c r="F43" s="103"/>
-      <c r="G43" s="103"/>
-      <c r="H43" s="104"/>
-      <c r="I43" s="104"/>
-      <c r="J43" s="130"/>
-      <c r="K43" s="104"/>
-      <c r="L43" s="104"/>
-      <c r="M43" s="105"/>
-      <c r="N43" s="105"/>
+      <c r="C43" s="99"/>
+      <c r="D43" s="99"/>
+      <c r="E43" s="100"/>
+      <c r="F43" s="100"/>
+      <c r="G43" s="100"/>
+      <c r="H43" s="101"/>
+      <c r="I43" s="101"/>
+      <c r="J43" s="127"/>
+      <c r="K43" s="101"/>
+      <c r="L43" s="101"/>
+      <c r="M43" s="102"/>
+      <c r="N43" s="102"/>
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="10"/>
       <c r="B44" s="37">
         <v>30</v>
       </c>
-      <c r="C44" s="102"/>
-      <c r="D44" s="102"/>
-      <c r="E44" s="103"/>
-      <c r="F44" s="103"/>
-      <c r="G44" s="103"/>
-      <c r="H44" s="104"/>
-      <c r="I44" s="104"/>
-      <c r="J44" s="130"/>
-      <c r="K44" s="104"/>
-      <c r="L44" s="104"/>
-      <c r="M44" s="105"/>
-      <c r="N44" s="105"/>
+      <c r="C44" s="99"/>
+      <c r="D44" s="99"/>
+      <c r="E44" s="100"/>
+      <c r="F44" s="100"/>
+      <c r="G44" s="100"/>
+      <c r="H44" s="101"/>
+      <c r="I44" s="101"/>
+      <c r="J44" s="127"/>
+      <c r="K44" s="101"/>
+      <c r="L44" s="101"/>
+      <c r="M44" s="102"/>
+      <c r="N44" s="102"/>
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="10"/>
       <c r="B45" s="37">
         <v>31</v>
       </c>
-      <c r="E45" s="103"/>
-      <c r="F45" s="103"/>
-      <c r="G45" s="103"/>
-      <c r="H45" s="104"/>
-      <c r="I45" s="104"/>
-      <c r="J45" s="130"/>
-      <c r="K45" s="104"/>
-      <c r="L45" s="104"/>
-      <c r="M45" s="105"/>
-      <c r="N45" s="105"/>
+      <c r="E45" s="100"/>
+      <c r="F45" s="100"/>
+      <c r="G45" s="100"/>
+      <c r="H45" s="101"/>
+      <c r="I45" s="101"/>
+      <c r="J45" s="127"/>
+      <c r="K45" s="101"/>
+      <c r="L45" s="101"/>
+      <c r="M45" s="102"/>
+      <c r="N45" s="102"/>
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="10"/>
@@ -7168,29 +7192,29 @@
         <v>32</v>
       </c>
       <c r="D46" s="9"/>
-      <c r="E46" s="103"/>
-      <c r="F46" s="103"/>
-      <c r="G46" s="103"/>
-      <c r="H46" s="104"/>
-      <c r="I46" s="104"/>
-      <c r="J46" s="130"/>
-      <c r="K46" s="104"/>
-      <c r="L46" s="104"/>
-      <c r="M46" s="105"/>
-      <c r="N46" s="105"/>
+      <c r="E46" s="100"/>
+      <c r="F46" s="100"/>
+      <c r="G46" s="100"/>
+      <c r="H46" s="101"/>
+      <c r="I46" s="101"/>
+      <c r="J46" s="127"/>
+      <c r="K46" s="101"/>
+      <c r="L46" s="101"/>
+      <c r="M46" s="102"/>
+      <c r="N46" s="102"/>
     </row>
     <row r="47" spans="1:14" ht="12.75" customHeight="1">
       <c r="B47" s="8"/>
-      <c r="J47" s="106">
+      <c r="J47" s="103">
         <f>SUM(J13:J46)</f>
-        <v>72</v>
-      </c>
-      <c r="L47" s="107" t="s">
+        <v>69</v>
+      </c>
+      <c r="L47" s="104" t="s">
         <v>16</v>
       </c>
-      <c r="M47" s="106">
+      <c r="M47" s="103">
         <f>SUM(M13:M46)</f>
-        <v>53</v>
+        <v>75</v>
       </c>
     </row>
     <row r="48" spans="1:14">
@@ -7244,7 +7268,7 @@
       <pane xSplit="5" ySplit="4" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D20" sqref="D20"/>
+      <selection pane="bottomRight" activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25"/>
@@ -7265,22 +7289,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="29" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A1" s="189" t="s">
+      <c r="A1" s="188" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="190"/>
-      <c r="C1" s="190"/>
-      <c r="D1" s="190"/>
-      <c r="E1" s="190"/>
-      <c r="F1" s="190"/>
-      <c r="G1" s="190"/>
-      <c r="H1" s="190"/>
-      <c r="I1" s="190"/>
-      <c r="J1" s="190"/>
-      <c r="K1" s="190"/>
-      <c r="L1" s="190"/>
-      <c r="M1" s="190"/>
-      <c r="N1" s="191"/>
+      <c r="B1" s="189"/>
+      <c r="C1" s="189"/>
+      <c r="D1" s="189"/>
+      <c r="E1" s="189"/>
+      <c r="F1" s="189"/>
+      <c r="G1" s="189"/>
+      <c r="H1" s="189"/>
+      <c r="I1" s="189"/>
+      <c r="J1" s="189"/>
+      <c r="K1" s="189"/>
+      <c r="L1" s="189"/>
+      <c r="M1" s="189"/>
+      <c r="N1" s="190"/>
     </row>
     <row r="2" spans="1:15" s="29" customFormat="1" ht="11.45" customHeight="1">
       <c r="A2" s="30"/>
@@ -7310,11 +7334,11 @@
       <c r="B4" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="C4" s="91" t="s">
-        <v>124</v>
-      </c>
-      <c r="D4" s="91" t="s">
-        <v>157</v>
+      <c r="C4" s="88" t="s">
+        <v>123</v>
+      </c>
+      <c r="D4" s="88" t="s">
+        <v>156</v>
       </c>
       <c r="E4" s="27" t="s">
         <v>112</v>
@@ -7325,14 +7349,14 @@
       <c r="G4" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="91" t="s">
+      <c r="H4" s="88" t="s">
         <v>35</v>
       </c>
       <c r="I4" s="27" t="s">
         <v>33</v>
       </c>
       <c r="J4" s="27" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K4" s="27" t="s">
         <v>34</v>
@@ -7351,650 +7375,676 @@
       </c>
     </row>
     <row r="5" spans="1:15" ht="25.5" customHeight="1">
-      <c r="A5" s="110">
+      <c r="A5" s="107">
         <v>1</v>
       </c>
-      <c r="B5" s="111">
+      <c r="B5" s="108">
         <v>1</v>
       </c>
-      <c r="C5" s="112" t="str">
+      <c r="C5" s="109" t="str">
         <f>VLOOKUP(B5,Planificación!$B$13:$E$93,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D5" s="113" t="str">
+      <c r="D5" s="110" t="str">
         <f>VLOOKUP(B5,Planificación!$B$13:$E$93,4,FALSE)</f>
         <v>Plan de Proyecto</v>
       </c>
-      <c r="E5" s="112" t="str">
+      <c r="E5" s="109" t="str">
         <f>VLOOKUP(B5,Planificación!$B$13:$G$93,5,FALSE)</f>
         <v>HV</v>
       </c>
-      <c r="F5" s="112" t="str">
+      <c r="F5" s="109" t="str">
         <f>VLOOKUP(B5,Planificación!$B$13:$G$93,6,FALSE)</f>
         <v>MA</v>
       </c>
-      <c r="G5" s="149" t="s">
-        <v>202</v>
-      </c>
-      <c r="H5" s="114"/>
-      <c r="I5" s="114"/>
-      <c r="J5" s="114"/>
-      <c r="K5" s="116"/>
-      <c r="L5" s="117"/>
-      <c r="M5" s="117"/>
-      <c r="N5" s="118">
+      <c r="G5" s="139" t="s">
+        <v>201</v>
+      </c>
+      <c r="H5" s="111"/>
+      <c r="I5" s="111"/>
+      <c r="J5" s="111"/>
+      <c r="K5" s="113"/>
+      <c r="L5" s="114"/>
+      <c r="M5" s="114"/>
+      <c r="N5" s="115">
         <f>IF(M5&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="O5" s="133"/>
+      <c r="O5" s="129"/>
     </row>
     <row r="6" spans="1:15" ht="29.25" customHeight="1">
-      <c r="A6" s="110">
+      <c r="A6" s="107">
         <v>2</v>
       </c>
-      <c r="B6" s="111">
+      <c r="B6" s="108">
         <v>2</v>
       </c>
-      <c r="C6" s="112" t="str">
+      <c r="C6" s="109" t="str">
         <f>VLOOKUP(B6,Planificación!$B$13:$E$93,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D6" s="113" t="str">
+      <c r="D6" s="110" t="str">
         <f>VLOOKUP(B6,Planificación!$B$13:$E$93,4,FALSE)</f>
         <v>Registro de Riesgos</v>
       </c>
-      <c r="E6" s="112" t="str">
+      <c r="E6" s="109" t="str">
         <f>VLOOKUP(B6,Planificación!$B$13:$F$93,5,FALSE)</f>
         <v>HV</v>
       </c>
-      <c r="F6" s="112" t="str">
+      <c r="F6" s="109" t="str">
         <f>VLOOKUP(B6,Planificación!$B$13:$G$93,6,FALSE)</f>
         <v>MA</v>
       </c>
-      <c r="G6" s="149" t="s">
-        <v>202</v>
-      </c>
-      <c r="H6" s="114"/>
-      <c r="I6" s="114"/>
-      <c r="J6" s="114"/>
-      <c r="K6" s="116"/>
-      <c r="L6" s="117"/>
-      <c r="M6" s="117"/>
-      <c r="N6" s="118">
+      <c r="G6" s="139" t="s">
+        <v>201</v>
+      </c>
+      <c r="H6" s="111"/>
+      <c r="I6" s="111"/>
+      <c r="J6" s="111"/>
+      <c r="K6" s="113"/>
+      <c r="L6" s="114"/>
+      <c r="M6" s="114"/>
+      <c r="N6" s="115">
         <f>IF(M6&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="O6" s="133"/>
+      <c r="O6" s="129"/>
     </row>
     <row r="7" spans="1:15" ht="25.5" customHeight="1">
-      <c r="A7" s="110">
+      <c r="A7" s="107">
         <v>3</v>
       </c>
-      <c r="B7" s="111">
+      <c r="B7" s="108">
         <v>3</v>
       </c>
-      <c r="C7" s="112" t="str">
+      <c r="C7" s="109" t="str">
         <f>VLOOKUP(B7,Planificación!$B$13:$E$93,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D7" s="113" t="str">
+      <c r="D7" s="110" t="str">
         <f>VLOOKUP(B7,Planificación!$B$13:$E$93,4,FALSE)</f>
         <v>Modelaje Base de Datos</v>
       </c>
-      <c r="E7" s="112" t="str">
+      <c r="E7" s="109" t="str">
         <f>VLOOKUP(B7,Planificación!$B$13:$F$93,5,FALSE)</f>
         <v>HV</v>
       </c>
-      <c r="F7" s="112" t="str">
+      <c r="F7" s="109" t="str">
         <f>VLOOKUP(B7,Planificación!$B$13:$G$93,6,FALSE)</f>
         <v>MA</v>
       </c>
-      <c r="G7" s="115" t="s">
-        <v>210</v>
-      </c>
-      <c r="H7" s="114" t="s">
-        <v>151</v>
-      </c>
-      <c r="I7" s="114"/>
-      <c r="J7" s="114" t="s">
-        <v>197</v>
-      </c>
-      <c r="K7" s="116"/>
-      <c r="L7" s="104">
+      <c r="G7" s="112" t="s">
+        <v>209</v>
+      </c>
+      <c r="H7" s="111" t="s">
+        <v>150</v>
+      </c>
+      <c r="I7" s="111" t="s">
+        <v>98</v>
+      </c>
+      <c r="J7" s="111" t="s">
+        <v>196</v>
+      </c>
+      <c r="K7" s="113"/>
+      <c r="L7" s="101">
         <v>41163</v>
       </c>
-      <c r="M7" s="104">
+      <c r="M7" s="101">
         <v>41165</v>
       </c>
-      <c r="N7" s="118">
+      <c r="N7" s="115">
         <f>IF(M7&gt;0,1,0)</f>
         <v>1</v>
       </c>
-      <c r="O7" s="133"/>
+      <c r="O7" s="129"/>
     </row>
     <row r="8" spans="1:15" ht="25.5" customHeight="1">
-      <c r="A8" s="110">
+      <c r="A8" s="107">
         <v>4</v>
       </c>
-      <c r="B8" s="111">
+      <c r="B8" s="108">
         <v>4</v>
       </c>
-      <c r="C8" s="112" t="str">
+      <c r="C8" s="109" t="str">
         <f>VLOOKUP(B8,Planificación!$B$13:$E$93,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D8" s="113" t="str">
+      <c r="D8" s="110" t="str">
         <f>VLOOKUP(B8,Planificación!$B$13:$E$93,4,FALSE)</f>
         <v>Kick Off Metting Interno</v>
       </c>
-      <c r="E8" s="112" t="str">
+      <c r="E8" s="109" t="str">
         <f>VLOOKUP(B8,Planificación!$B$13:$F$93,5,FALSE)</f>
         <v>HV</v>
       </c>
-      <c r="F8" s="112" t="str">
+      <c r="F8" s="109" t="str">
         <f>VLOOKUP(B8,Planificación!$B$13:$G$93,6,FALSE)</f>
         <v>MA</v>
       </c>
-      <c r="G8" s="149" t="s">
-        <v>202</v>
-      </c>
-      <c r="H8" s="114"/>
-      <c r="I8" s="114"/>
-      <c r="J8" s="114"/>
-      <c r="K8" s="116"/>
-      <c r="L8" s="117"/>
-      <c r="M8" s="117"/>
-      <c r="N8" s="118">
+      <c r="G8" s="139" t="s">
+        <v>201</v>
+      </c>
+      <c r="H8" s="111"/>
+      <c r="I8" s="111"/>
+      <c r="J8" s="111"/>
+      <c r="K8" s="113"/>
+      <c r="L8" s="114"/>
+      <c r="M8" s="114"/>
+      <c r="N8" s="115">
         <f>IF(M8&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="O8" s="133"/>
+      <c r="O8" s="129"/>
     </row>
     <row r="9" spans="1:15" ht="24">
-      <c r="A9" s="110">
+      <c r="A9" s="107">
         <v>5</v>
       </c>
-      <c r="B9" s="111">
+      <c r="B9" s="108">
         <v>5</v>
       </c>
-      <c r="C9" s="112" t="str">
+      <c r="C9" s="109" t="str">
         <f>VLOOKUP(B9,Planificación!$B$13:$E$93,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D9" s="113" t="str">
+      <c r="D9" s="110" t="str">
         <f>VLOOKUP(B9,Planificación!$B$13:$E$93,4,FALSE)</f>
         <v>Diagrama de casos de uso</v>
       </c>
-      <c r="E9" s="112" t="str">
+      <c r="E9" s="109" t="str">
         <f>VLOOKUP(B9,Planificación!$B$13:$F$93,5,FALSE)</f>
         <v>HV</v>
       </c>
-      <c r="F9" s="112" t="str">
+      <c r="F9" s="109" t="str">
         <f>VLOOKUP(B9,Planificación!$B$13:$G$93,6,FALSE)</f>
         <v>MA</v>
       </c>
-      <c r="G9" s="115" t="s">
-        <v>212</v>
-      </c>
-      <c r="H9" s="114" t="s">
-        <v>150</v>
-      </c>
-      <c r="I9" s="114"/>
-      <c r="J9" s="114" t="s">
-        <v>197</v>
-      </c>
-      <c r="K9" s="116"/>
-      <c r="L9" s="104">
+      <c r="G9" s="112" t="s">
+        <v>211</v>
+      </c>
+      <c r="H9" s="111" t="s">
+        <v>149</v>
+      </c>
+      <c r="I9" s="111" t="s">
+        <v>99</v>
+      </c>
+      <c r="J9" s="111" t="s">
+        <v>196</v>
+      </c>
+      <c r="K9" s="113"/>
+      <c r="L9" s="101">
         <v>41171</v>
       </c>
-      <c r="M9" s="104">
+      <c r="M9" s="101">
         <v>41172</v>
       </c>
-      <c r="N9" s="118">
+      <c r="N9" s="115">
         <f>IF(M9&gt;0,1,0)</f>
         <v>1</v>
       </c>
-      <c r="O9" s="133"/>
+      <c r="O9" s="129"/>
     </row>
     <row r="10" spans="1:15" ht="32.25" customHeight="1">
-      <c r="A10" s="110">
+      <c r="A10" s="107">
         <v>6</v>
       </c>
-      <c r="B10" s="111">
+      <c r="B10" s="108">
         <v>6</v>
       </c>
-      <c r="C10" s="112" t="str">
+      <c r="C10" s="109" t="str">
         <f>VLOOKUP(B10,Planificación!$B$13:$E$93,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D10" s="113" t="str">
+      <c r="D10" s="110" t="str">
         <f>VLOOKUP(B10,Planificación!$B$13:$E$93,4,FALSE)</f>
         <v>Registros de Riesgos</v>
       </c>
-      <c r="E10" s="112" t="str">
+      <c r="E10" s="109" t="str">
         <f>VLOOKUP(B10,Planificación!$B$13:$F$93,5,FALSE)</f>
         <v>HV</v>
       </c>
-      <c r="F10" s="112" t="str">
+      <c r="F10" s="109" t="str">
         <f>VLOOKUP(B10,Planificación!$B$13:$G$93,6,FALSE)</f>
         <v>MA</v>
       </c>
-      <c r="G10" s="149" t="s">
-        <v>202</v>
-      </c>
-      <c r="H10" s="114"/>
-      <c r="I10" s="114"/>
-      <c r="J10" s="114"/>
-      <c r="K10" s="116"/>
-      <c r="L10" s="117"/>
-      <c r="M10" s="117"/>
-      <c r="N10" s="118">
+      <c r="G10" s="139" t="s">
+        <v>201</v>
+      </c>
+      <c r="H10" s="111"/>
+      <c r="I10" s="111"/>
+      <c r="J10" s="111"/>
+      <c r="K10" s="113"/>
+      <c r="L10" s="114"/>
+      <c r="M10" s="114"/>
+      <c r="N10" s="115">
         <f t="shared" ref="N10:N15" si="0">IF(M10&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="O10" s="133"/>
+      <c r="O10" s="129"/>
     </row>
     <row r="11" spans="1:15" ht="24">
-      <c r="A11" s="110">
+      <c r="A11" s="107">
         <v>7</v>
       </c>
-      <c r="B11" s="111">
+      <c r="B11" s="108">
         <v>7</v>
       </c>
-      <c r="C11" s="112" t="str">
+      <c r="C11" s="109" t="str">
         <f>VLOOKUP(B11,Planificación!$B$13:$E$93,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D11" s="113" t="str">
+      <c r="D11" s="110" t="str">
         <f>VLOOKUP(B11,Planificación!$B$13:$E$93,4,FALSE)</f>
         <v>Desarrollo de Logica de Negocio</v>
       </c>
-      <c r="E11" s="112" t="str">
+      <c r="E11" s="109" t="str">
         <f>VLOOKUP(B11,Planificación!$B$13:$F$93,5,FALSE)</f>
         <v>HV</v>
       </c>
-      <c r="F11" s="112" t="str">
+      <c r="F11" s="109" t="str">
         <f>VLOOKUP(B11,Planificación!$B$13:$G$93,6,FALSE)</f>
         <v>MA</v>
       </c>
-      <c r="G11" s="115" t="s">
-        <v>211</v>
-      </c>
-      <c r="H11" s="114" t="s">
+      <c r="G11" s="112" t="s">
+        <v>210</v>
+      </c>
+      <c r="H11" s="111" t="s">
         <v>37</v>
       </c>
-      <c r="I11" s="114"/>
-      <c r="J11" s="114" t="s">
-        <v>197</v>
-      </c>
-      <c r="K11" s="116"/>
-      <c r="L11" s="104">
+      <c r="I11" s="111" t="s">
+        <v>96</v>
+      </c>
+      <c r="J11" s="111" t="s">
+        <v>196</v>
+      </c>
+      <c r="K11" s="113"/>
+      <c r="L11" s="101">
         <v>41189</v>
       </c>
-      <c r="M11" s="104">
+      <c r="M11" s="101">
         <v>41190</v>
       </c>
-      <c r="N11" s="118">
+      <c r="N11" s="115">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="O11" s="133"/>
+      <c r="O11" s="129"/>
     </row>
     <row r="12" spans="1:15" ht="24">
-      <c r="A12" s="110">
+      <c r="A12" s="107">
         <v>8</v>
       </c>
-      <c r="B12" s="111">
+      <c r="B12" s="108">
         <v>8</v>
       </c>
-      <c r="C12" s="112" t="str">
+      <c r="C12" s="109" t="str">
         <f>VLOOKUP(B12,Planificación!$B$13:$E$93,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D12" s="113" t="str">
+      <c r="D12" s="110" t="str">
         <f>VLOOKUP(B12,Planificación!$B$13:$E$93,4,FALSE)</f>
         <v>Acta de Aceptacion de Entregables</v>
       </c>
-      <c r="E12" s="112" t="str">
+      <c r="E12" s="109" t="str">
         <f>VLOOKUP(B12,Planificación!$B$13:$F$93,5,FALSE)</f>
         <v>HV</v>
       </c>
-      <c r="F12" s="112" t="str">
+      <c r="F12" s="109" t="str">
         <f>VLOOKUP(B12,Planificación!$B$13:$G$93,6,FALSE)</f>
         <v>MA</v>
       </c>
-      <c r="G12" s="149" t="s">
-        <v>202</v>
-      </c>
-      <c r="H12" s="114"/>
-      <c r="I12" s="114"/>
-      <c r="K12" s="116"/>
-      <c r="L12" s="117"/>
-      <c r="M12" s="117"/>
-      <c r="N12" s="118">
+      <c r="G12" s="139" t="s">
+        <v>201</v>
+      </c>
+      <c r="H12" s="111"/>
+      <c r="I12" s="111"/>
+      <c r="K12" s="113"/>
+      <c r="L12" s="114"/>
+      <c r="M12" s="114"/>
+      <c r="N12" s="115">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O12" s="133"/>
+      <c r="O12" s="129"/>
     </row>
     <row r="13" spans="1:15" ht="24">
-      <c r="A13" s="110">
+      <c r="A13" s="107">
         <v>9</v>
       </c>
-      <c r="B13" s="111">
+      <c r="B13" s="108">
         <v>9</v>
       </c>
-      <c r="C13" s="112" t="str">
+      <c r="C13" s="109" t="str">
         <f>VLOOKUP(B13,Planificación!$B$13:$E$93,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D13" s="113" t="str">
+      <c r="D13" s="110" t="str">
         <f>VLOOKUP(B13,Planificación!$B$13:$E$93,4,FALSE)</f>
         <v>Diagrama de Casos de Uso</v>
       </c>
-      <c r="E13" s="112" t="str">
+      <c r="E13" s="109" t="str">
         <f>VLOOKUP(B13,Planificación!$B$13:$F$93,5,FALSE)</f>
         <v>HV</v>
       </c>
-      <c r="F13" s="112" t="str">
+      <c r="F13" s="109" t="str">
         <f>VLOOKUP(B13,Planificación!$B$13:$G$93,6,FALSE)</f>
         <v>MA</v>
       </c>
-      <c r="G13" s="115" t="s">
-        <v>213</v>
-      </c>
-      <c r="H13" s="114" t="s">
+      <c r="G13" s="112" t="s">
+        <v>212</v>
+      </c>
+      <c r="H13" s="111" t="s">
         <v>36</v>
       </c>
-      <c r="I13" s="114"/>
-      <c r="J13" s="114" t="s">
-        <v>197</v>
-      </c>
-      <c r="K13" s="116"/>
-      <c r="L13" s="104">
+      <c r="I13" s="111" t="s">
+        <v>96</v>
+      </c>
+      <c r="J13" s="111" t="s">
+        <v>196</v>
+      </c>
+      <c r="K13" s="113"/>
+      <c r="L13" s="101">
         <v>41203</v>
       </c>
-      <c r="M13" s="104">
+      <c r="M13" s="101">
         <v>41207</v>
       </c>
-      <c r="N13" s="118">
+      <c r="N13" s="115">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="O13" s="133"/>
+      <c r="O13" s="129"/>
     </row>
     <row r="14" spans="1:15" ht="22.5" customHeight="1">
-      <c r="A14" s="110">
+      <c r="A14" s="107">
         <v>10</v>
       </c>
-      <c r="B14" s="111">
+      <c r="B14" s="108">
         <v>10</v>
       </c>
-      <c r="C14" s="112" t="str">
+      <c r="C14" s="109" t="str">
         <f>VLOOKUP(B14,Planificación!$B$13:$E$93,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D14" s="113" t="str">
+      <c r="D14" s="110" t="str">
         <f>VLOOKUP(B14,Planificación!$B$13:$E$93,4,FALSE)</f>
         <v>Planes de Prueba</v>
       </c>
-      <c r="E14" s="112" t="str">
+      <c r="E14" s="109" t="str">
         <f>VLOOKUP(B14,Planificación!$B$13:$F$93,5,FALSE)</f>
         <v>HV</v>
       </c>
-      <c r="F14" s="112" t="str">
+      <c r="F14" s="109" t="str">
         <f>VLOOKUP(B14,Planificación!$B$13:$G$93,6,FALSE)</f>
         <v>MA</v>
       </c>
-      <c r="G14" s="149" t="s">
-        <v>202</v>
-      </c>
-      <c r="H14" s="114"/>
-      <c r="I14" s="114"/>
-      <c r="J14" s="114"/>
-      <c r="K14" s="116"/>
-      <c r="L14" s="117"/>
-      <c r="M14" s="117"/>
-      <c r="N14" s="118">
+      <c r="G14" s="139" t="s">
+        <v>201</v>
+      </c>
+      <c r="H14" s="111"/>
+      <c r="I14" s="111"/>
+      <c r="J14" s="111"/>
+      <c r="K14" s="113"/>
+      <c r="L14" s="114"/>
+      <c r="M14" s="114"/>
+      <c r="N14" s="115">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O14" s="133"/>
+      <c r="O14" s="129"/>
     </row>
     <row r="15" spans="1:15" ht="24">
-      <c r="A15" s="110">
+      <c r="A15" s="107">
         <v>11</v>
       </c>
-      <c r="B15" s="111">
+      <c r="B15" s="108">
         <v>11</v>
       </c>
-      <c r="C15" s="112" t="str">
+      <c r="C15" s="109" t="str">
         <f>VLOOKUP(B15,Planificación!$B$13:$E$93,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D15" s="113" t="str">
+      <c r="D15" s="110" t="str">
         <f>VLOOKUP(B15,Planificación!$B$13:$E$93,4,FALSE)</f>
         <v>Desarrollo de Persistencia</v>
       </c>
-      <c r="E15" s="112" t="str">
+      <c r="E15" s="109" t="str">
         <f>VLOOKUP(B15,Planificación!$B$13:$F$93,5,FALSE)</f>
         <v>HV</v>
       </c>
-      <c r="F15" s="112" t="str">
+      <c r="F15" s="109" t="str">
         <f>VLOOKUP(B15,Planificación!$B$13:$G$93,6,FALSE)</f>
         <v>MA</v>
       </c>
-      <c r="G15" s="149" t="s">
-        <v>202</v>
-      </c>
-      <c r="H15" s="114"/>
-      <c r="I15" s="114"/>
-      <c r="J15" s="114"/>
-      <c r="K15" s="116"/>
-      <c r="L15" s="117"/>
-      <c r="M15" s="117"/>
-      <c r="N15" s="118">
+      <c r="G15" s="139" t="s">
+        <v>201</v>
+      </c>
+      <c r="H15" s="111"/>
+      <c r="I15" s="111"/>
+      <c r="J15" s="111"/>
+      <c r="K15" s="113"/>
+      <c r="L15" s="114"/>
+      <c r="M15" s="114"/>
+      <c r="N15" s="115">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O15" s="133"/>
+      <c r="O15" s="129"/>
     </row>
     <row r="16" spans="1:15" ht="24">
-      <c r="A16" s="110">
+      <c r="A16" s="107">
         <v>12</v>
       </c>
-      <c r="B16" s="111">
+      <c r="B16" s="108">
         <v>12</v>
       </c>
-      <c r="C16" s="112" t="str">
+      <c r="C16" s="109" t="str">
         <f>VLOOKUP(B16,Planificación!$B$13:$E$93,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D16" s="113" t="str">
+      <c r="D16" s="110" t="str">
         <f>VLOOKUP(B16,Planificación!$B$13:$E$93,4,FALSE)</f>
         <v>Acta de Aceptacion de Entregables</v>
       </c>
-      <c r="E16" s="112" t="str">
+      <c r="E16" s="109" t="str">
         <f>VLOOKUP(B16,Planificación!$B$13:$F$93,5,FALSE)</f>
         <v>HV</v>
       </c>
-      <c r="F16" s="112" t="str">
+      <c r="F16" s="109" t="str">
         <f>VLOOKUP(B16,Planificación!$B$13:$G$93,6,FALSE)</f>
         <v>MA</v>
       </c>
-      <c r="G16" s="149" t="s">
-        <v>202</v>
-      </c>
-      <c r="H16" s="114"/>
-      <c r="I16" s="114"/>
-      <c r="J16" s="114"/>
-      <c r="K16" s="116"/>
-      <c r="L16" s="117"/>
-      <c r="M16" s="117"/>
-      <c r="N16" s="118">
+      <c r="G16" s="139" t="s">
+        <v>201</v>
+      </c>
+      <c r="H16" s="111"/>
+      <c r="I16" s="111"/>
+      <c r="J16" s="111"/>
+      <c r="K16" s="113"/>
+      <c r="L16" s="114"/>
+      <c r="M16" s="114"/>
+      <c r="N16" s="115">
         <f t="shared" ref="N16:N20" si="1">IF(M16&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="O16" s="133"/>
+      <c r="O16" s="129"/>
     </row>
     <row r="17" spans="1:15" ht="18" customHeight="1">
-      <c r="A17" s="110">
+      <c r="A17" s="107">
         <v>13</v>
       </c>
-      <c r="B17" s="111">
+      <c r="B17" s="108">
         <v>13</v>
       </c>
-      <c r="C17" s="112" t="str">
+      <c r="C17" s="109" t="str">
         <f>VLOOKUP(B17,Planificación!$B$13:$E$93,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D17" s="113" t="str">
+      <c r="D17" s="110" t="str">
         <f>VLOOKUP(B17,Planificación!$B$13:$E$93,4,FALSE)</f>
         <v>Manual de Usuario</v>
       </c>
-      <c r="E17" s="112" t="str">
+      <c r="E17" s="109" t="str">
         <f>VLOOKUP(B17,Planificación!$B$13:$F$93,5,FALSE)</f>
         <v>HV</v>
       </c>
-      <c r="F17" s="112" t="str">
+      <c r="F17" s="109" t="str">
         <f>VLOOKUP(B17,Planificación!$B$13:$G$93,6,FALSE)</f>
         <v>MA</v>
       </c>
-      <c r="G17" s="149" t="s">
-        <v>202</v>
-      </c>
-      <c r="H17" s="114"/>
-      <c r="I17" s="114"/>
-      <c r="J17" s="114"/>
-      <c r="K17" s="116"/>
-      <c r="L17" s="117"/>
-      <c r="M17" s="117"/>
-      <c r="N17" s="118">
+      <c r="G17" s="139" t="s">
+        <v>201</v>
+      </c>
+      <c r="H17" s="111" t="s">
+        <v>148</v>
+      </c>
+      <c r="I17" s="111" t="s">
+        <v>99</v>
+      </c>
+      <c r="J17" s="111" t="s">
+        <v>196</v>
+      </c>
+      <c r="K17" s="113"/>
+      <c r="L17" s="148">
+        <v>41258</v>
+      </c>
+      <c r="M17" s="148">
+        <v>41259</v>
+      </c>
+      <c r="N17" s="115">
+        <v>1</v>
+      </c>
+      <c r="O17" s="129"/>
+    </row>
+    <row r="18" spans="1:15" ht="29.25" customHeight="1">
+      <c r="A18" s="107">
+        <v>14</v>
+      </c>
+      <c r="B18" s="108">
+        <v>14</v>
+      </c>
+      <c r="C18" s="109" t="str">
+        <f>VLOOKUP(B18,Planificación!$B$13:$E$93,2,FALSE)</f>
+        <v>Desarrollo de Sistemas</v>
+      </c>
+      <c r="D18" s="110" t="str">
+        <f>VLOOKUP(B18,Planificación!$B$13:$E$93,4,FALSE)</f>
+        <v>Plan de Capacitación</v>
+      </c>
+      <c r="E18" s="109" t="str">
+        <f>VLOOKUP(B18,Planificación!$B$13:$F$93,5,FALSE)</f>
+        <v>HV</v>
+      </c>
+      <c r="F18" s="109" t="str">
+        <f>VLOOKUP(B18,Planificación!$B$13:$G$93,6,FALSE)</f>
+        <v>MA</v>
+      </c>
+      <c r="G18" s="139" t="s">
+        <v>201</v>
+      </c>
+      <c r="H18" s="111"/>
+      <c r="I18" s="111"/>
+      <c r="J18" s="111"/>
+      <c r="K18" s="113"/>
+      <c r="L18" s="148"/>
+      <c r="M18" s="148"/>
+      <c r="N18" s="115">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O17" s="133"/>
-    </row>
-    <row r="18" spans="1:15" ht="29.25" customHeight="1">
-      <c r="A18" s="110">
-        <v>14</v>
-      </c>
-      <c r="B18" s="111">
-        <v>14</v>
-      </c>
-      <c r="C18" s="112" t="str">
-        <f>VLOOKUP(B18,Planificación!$B$13:$E$93,2,FALSE)</f>
+      <c r="O18" s="129"/>
+    </row>
+    <row r="19" spans="1:15" ht="25.5" customHeight="1">
+      <c r="A19" s="107">
+        <v>15</v>
+      </c>
+      <c r="B19" s="108">
+        <v>15</v>
+      </c>
+      <c r="C19" s="109" t="str">
+        <f>VLOOKUP(B19,Planificación!$B$13:$E$93,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D18" s="113" t="str">
-        <f>VLOOKUP(B18,Planificación!$B$13:$E$93,4,FALSE)</f>
-        <v>Plan de Capacitación</v>
-      </c>
-      <c r="E18" s="112" t="str">
-        <f>VLOOKUP(B18,Planificación!$B$13:$F$93,5,FALSE)</f>
+      <c r="D19" s="110" t="str">
+        <f>VLOOKUP(B19,Planificación!$B$13:$E$93,4,FALSE)</f>
+        <v>Implementación</v>
+      </c>
+      <c r="E19" s="109" t="str">
+        <f>VLOOKUP(B19,Planificación!$B$13:$F$93,5,FALSE)</f>
         <v>HV</v>
       </c>
-      <c r="F18" s="112" t="str">
-        <f>VLOOKUP(B18,Planificación!$B$13:$G$93,6,FALSE)</f>
+      <c r="F19" s="109" t="str">
+        <f>VLOOKUP(B19,Planificación!$B$13:$G$93,6,FALSE)</f>
         <v>MA</v>
       </c>
-      <c r="G18" s="149" t="s">
-        <v>202</v>
-      </c>
-      <c r="H18" s="114"/>
-      <c r="I18" s="114"/>
-      <c r="J18" s="114"/>
-      <c r="K18" s="116"/>
-      <c r="L18" s="117"/>
-      <c r="M18" s="117"/>
-      <c r="N18" s="118">
+      <c r="G19" s="139" t="s">
+        <v>201</v>
+      </c>
+      <c r="H19" s="111" t="s">
+        <v>149</v>
+      </c>
+      <c r="I19" s="111" t="s">
+        <v>99</v>
+      </c>
+      <c r="J19" s="111" t="s">
+        <v>196</v>
+      </c>
+      <c r="K19" s="113"/>
+      <c r="L19" s="148">
+        <v>41254</v>
+      </c>
+      <c r="M19" s="148">
+        <v>41256</v>
+      </c>
+      <c r="N19" s="115">
+        <v>1</v>
+      </c>
+      <c r="O19" s="129"/>
+    </row>
+    <row r="20" spans="1:15" ht="24">
+      <c r="A20" s="107">
+        <v>16</v>
+      </c>
+      <c r="B20" s="108">
+        <v>16</v>
+      </c>
+      <c r="C20" s="109" t="str">
+        <f>VLOOKUP(B20,Planificación!$B$13:$E$93,2,FALSE)</f>
+        <v>Desarrollo de Sistemas</v>
+      </c>
+      <c r="D20" s="110" t="str">
+        <f>VLOOKUP(B20,Planificación!$B$13:$E$93,4,FALSE)</f>
+        <v>Acta de Finalización del Proyecto</v>
+      </c>
+      <c r="E20" s="109" t="str">
+        <f>VLOOKUP(B20,Planificación!$B$13:$F$93,5,FALSE)</f>
+        <v>HV</v>
+      </c>
+      <c r="F20" s="109" t="str">
+        <f>VLOOKUP(B20,Planificación!$B$13:$G$93,6,FALSE)</f>
+        <v>MA</v>
+      </c>
+      <c r="G20" s="139" t="s">
+        <v>201</v>
+      </c>
+      <c r="H20" s="111"/>
+      <c r="I20" s="111"/>
+      <c r="J20" s="111"/>
+      <c r="K20" s="113"/>
+      <c r="L20" s="114"/>
+      <c r="M20" s="114"/>
+      <c r="N20" s="115">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O18" s="133"/>
-    </row>
-    <row r="19" spans="1:15" ht="25.5" customHeight="1">
-      <c r="A19" s="110">
-        <v>15</v>
-      </c>
-      <c r="B19" s="111">
-        <v>15</v>
-      </c>
-      <c r="C19" s="112" t="str">
-        <f>VLOOKUP(B19,Planificación!$B$13:$E$93,2,FALSE)</f>
-        <v>Desarrollo de Sistemas</v>
-      </c>
-      <c r="D19" s="113" t="str">
-        <f>VLOOKUP(B19,Planificación!$B$13:$E$93,4,FALSE)</f>
-        <v>Implementación</v>
-      </c>
-      <c r="E19" s="112" t="str">
-        <f>VLOOKUP(B19,Planificación!$B$13:$F$93,5,FALSE)</f>
-        <v>HV</v>
-      </c>
-      <c r="F19" s="112" t="str">
-        <f>VLOOKUP(B19,Planificación!$B$13:$G$93,6,FALSE)</f>
-        <v>MA</v>
-      </c>
-      <c r="G19" s="149" t="s">
-        <v>202</v>
-      </c>
-      <c r="H19" s="114"/>
-      <c r="I19" s="114"/>
-      <c r="J19" s="114"/>
-      <c r="K19" s="116"/>
-      <c r="L19" s="117"/>
-      <c r="M19" s="117"/>
-      <c r="N19" s="118">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O19" s="133"/>
-    </row>
-    <row r="20" spans="1:15" ht="24">
-      <c r="A20" s="110">
-        <v>16</v>
-      </c>
-      <c r="B20" s="111">
-        <v>16</v>
-      </c>
-      <c r="C20" s="112" t="str">
-        <f>VLOOKUP(B20,Planificación!$B$13:$E$93,2,FALSE)</f>
-        <v>Desarrollo de Sistemas</v>
-      </c>
-      <c r="D20" s="113" t="str">
-        <f>VLOOKUP(B20,Planificación!$B$13:$E$93,4,FALSE)</f>
-        <v>Acta de Finalización del Proyecto</v>
-      </c>
-      <c r="E20" s="112" t="str">
-        <f>VLOOKUP(B20,Planificación!$B$13:$F$93,5,FALSE)</f>
-        <v>HV</v>
-      </c>
-      <c r="F20" s="112" t="str">
-        <f>VLOOKUP(B20,Planificación!$B$13:$G$93,6,FALSE)</f>
-        <v>MA</v>
-      </c>
-      <c r="G20" s="149" t="s">
-        <v>202</v>
-      </c>
-      <c r="H20" s="114"/>
-      <c r="I20" s="114"/>
-      <c r="J20" s="114"/>
-      <c r="K20" s="116"/>
-      <c r="L20" s="117"/>
-      <c r="M20" s="117"/>
-      <c r="N20" s="118">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O20" s="133"/>
+      <c r="O20" s="129"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:N1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <dataValidations disablePrompts="1" count="2">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H20">
       <formula1>TiposNC</formula1>
     </dataValidation>
@@ -8018,8 +8068,8 @@
   <sheetPr codeName="Hoja5"/>
   <dimension ref="A2:K61"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="F71" sqref="F71"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -8034,107 +8084,107 @@
   <sheetData>
     <row r="2" spans="1:11" s="1" customFormat="1" ht="13.5" customHeight="1">
       <c r="A2" s="13"/>
-      <c r="C2" s="205" t="s">
+      <c r="C2" s="204" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="205"/>
-      <c r="E2" s="205"/>
-      <c r="F2" s="205"/>
-      <c r="G2" s="205"/>
-      <c r="H2" s="205"/>
-      <c r="I2" s="205"/>
-      <c r="J2" s="205"/>
-      <c r="K2" s="205"/>
+      <c r="D2" s="204"/>
+      <c r="E2" s="204"/>
+      <c r="F2" s="204"/>
+      <c r="G2" s="204"/>
+      <c r="H2" s="204"/>
+      <c r="I2" s="204"/>
+      <c r="J2" s="204"/>
+      <c r="K2" s="204"/>
     </row>
     <row r="3" spans="1:11" s="2" customFormat="1" ht="16.5" customHeight="1">
       <c r="A3" s="14"/>
     </row>
     <row r="4" spans="1:11" s="2" customFormat="1">
       <c r="A4" s="14"/>
-      <c r="C4" s="206" t="s">
-        <v>115</v>
-      </c>
-      <c r="D4" s="206"/>
-      <c r="E4" s="195" t="str">
+      <c r="C4" s="205" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4" s="205"/>
+      <c r="E4" s="194" t="str">
         <f>IF(Planificación!D6&lt;&gt;"",Planificación!D6,"")</f>
         <v>Luis Muga Ampuero</v>
       </c>
-      <c r="F4" s="196"/>
-      <c r="G4" s="196"/>
-      <c r="H4" s="196"/>
-      <c r="I4" s="197"/>
+      <c r="F4" s="195"/>
+      <c r="G4" s="195"/>
+      <c r="H4" s="195"/>
+      <c r="I4" s="196"/>
     </row>
     <row r="5" spans="1:11" s="2" customFormat="1">
       <c r="A5" s="14"/>
-      <c r="C5" s="207" t="str">
+      <c r="C5" s="206" t="str">
         <f>Planificación!B7</f>
         <v>Gestor de Calidad</v>
       </c>
-      <c r="D5" s="208"/>
-      <c r="E5" s="195" t="str">
+      <c r="D5" s="207"/>
+      <c r="E5" s="194" t="str">
         <f>IF(Planificación!D7&lt;&gt;"",Planificación!D7,"")</f>
         <v>Daniel Hernandez Vasquez</v>
       </c>
-      <c r="F5" s="196"/>
-      <c r="G5" s="196"/>
-      <c r="H5" s="196"/>
-      <c r="I5" s="197"/>
+      <c r="F5" s="195"/>
+      <c r="G5" s="195"/>
+      <c r="H5" s="195"/>
+      <c r="I5" s="196"/>
     </row>
     <row r="6" spans="1:11" s="2" customFormat="1">
       <c r="A6" s="14"/>
-      <c r="C6" s="193" t="s">
+      <c r="C6" s="192" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="194"/>
-      <c r="E6" s="195" t="str">
+      <c r="D6" s="193"/>
+      <c r="E6" s="194" t="str">
         <f>IF(Planificación!D8&lt;&gt;"",Planificación!D8,"")</f>
         <v>Jose Salinas Francia</v>
       </c>
-      <c r="F6" s="196"/>
-      <c r="G6" s="196"/>
-      <c r="H6" s="196"/>
-      <c r="I6" s="197"/>
+      <c r="F6" s="195"/>
+      <c r="G6" s="195"/>
+      <c r="H6" s="195"/>
+      <c r="I6" s="196"/>
     </row>
     <row r="7" spans="1:11" s="2" customFormat="1" ht="24" customHeight="1">
       <c r="A7" s="14"/>
-      <c r="C7" s="199" t="s">
+      <c r="C7" s="198" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="199"/>
-      <c r="E7" s="200">
+      <c r="D7" s="198"/>
+      <c r="E7" s="199">
         <f>IF(Planificación!D9&lt;&gt;"",Planificación!D9,"")</f>
         <v>41226</v>
       </c>
-      <c r="F7" s="201"/>
-      <c r="G7" s="202" t="s">
+      <c r="F7" s="200"/>
+      <c r="G7" s="201" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="203"/>
-      <c r="I7" s="119">
+      <c r="H7" s="202"/>
+      <c r="I7" s="116">
         <f>IF(Planificación!F9&lt;&gt;"",Planificación!F9,"")</f>
-        <v>41227</v>
+        <v>41260</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="2" customFormat="1">
       <c r="A8" s="14"/>
-      <c r="C8" s="199" t="s">
+      <c r="C8" s="198" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="204"/>
-      <c r="E8" s="195" t="str">
+      <c r="D8" s="203"/>
+      <c r="E8" s="194" t="str">
         <f>IF(Planificación!D10&lt;&gt;"",Planificación!D10,"")</f>
         <v>2 Semanas</v>
       </c>
-      <c r="F8" s="196"/>
-      <c r="G8" s="196"/>
-      <c r="H8" s="196"/>
-      <c r="I8" s="197"/>
+      <c r="F8" s="195"/>
+      <c r="G8" s="195"/>
+      <c r="H8" s="195"/>
+      <c r="I8" s="196"/>
     </row>
     <row r="13" spans="1:11" ht="15">
-      <c r="C13" s="198" t="s">
+      <c r="C13" s="197" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="198"/>
+      <c r="D13" s="197"/>
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
@@ -8143,47 +8193,47 @@
       <c r="J13" s="12"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="C14" s="122" t="s">
+      <c r="C14" s="119" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="120">
+      <c r="D14" s="117">
         <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="14.25" customHeight="1">
-      <c r="C15" s="122" t="s">
+      <c r="C15" s="119" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="120">
+      <c r="D15" s="117">
         <f>D14-D16</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="C16" s="122" t="s">
+      <c r="C16" s="119" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="120">
+      <c r="D16" s="117">
         <f>COUNT(Planificación!L13:L46)</f>
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="3:5">
-      <c r="C17" s="122" t="s">
+      <c r="C17" s="119" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="121">
+      <c r="D17" s="118">
         <f>(D16/(IF(D14=0,1,D14)))</f>
-        <v>0.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="3:5">
-      <c r="C18" s="122" t="s">
+      <c r="C18" s="119" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="121">
+      <c r="D18" s="118">
         <f>1-D17</f>
-        <v>0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="3:5">
@@ -8192,35 +8242,35 @@
       <c r="E19" s="12"/>
     </row>
     <row r="20" spans="3:5">
-      <c r="C20" s="135"/>
+      <c r="C20" s="131"/>
       <c r="D20" s="26"/>
       <c r="E20" s="12"/>
     </row>
     <row r="21" spans="3:5">
-      <c r="C21" s="135"/>
+      <c r="C21" s="131"/>
       <c r="D21" s="26"/>
       <c r="E21" s="12"/>
     </row>
     <row r="22" spans="3:5">
-      <c r="C22" s="135"/>
+      <c r="C22" s="131"/>
       <c r="D22" s="26"/>
       <c r="E22" s="12"/>
     </row>
     <row r="23" spans="3:5">
-      <c r="C23" s="135"/>
+      <c r="C23" s="131"/>
       <c r="D23" s="26"/>
       <c r="E23" s="12"/>
     </row>
     <row r="24" spans="3:5">
-      <c r="C24" s="135"/>
+      <c r="C24" s="131"/>
       <c r="D24" s="26"/>
       <c r="E24" s="12"/>
     </row>
     <row r="26" spans="3:5" ht="15" customHeight="1">
-      <c r="C26" s="192" t="s">
+      <c r="C26" s="191" t="s">
         <v>39</v>
       </c>
-      <c r="D26" s="192"/>
+      <c r="D26" s="191"/>
     </row>
     <row r="27" spans="3:5">
       <c r="C27" s="34" t="s">
@@ -8231,97 +8281,97 @@
       </c>
     </row>
     <row r="28" spans="3:5">
-      <c r="C28" s="124" t="s">
+      <c r="C28" s="121" t="s">
+        <v>148</v>
+      </c>
+      <c r="D28" s="120">
+        <f>COUNTIF('Seguimiento de NC'!$H$5:$H$148,C28)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="3:5">
+      <c r="C29" s="121" t="s">
         <v>149</v>
       </c>
-      <c r="D28" s="123">
-        <f>COUNTIF('Seguimiento de NC'!$H$5:$H$148,C28)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="3:5">
-      <c r="C29" s="124" t="s">
+      <c r="D29" s="120">
+        <f>COUNTIF('Seguimiento de NC'!$H$5:$H$148,C29)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="3:5">
+      <c r="C30" s="121" t="s">
         <v>150</v>
       </c>
-      <c r="D29" s="123">
-        <f>COUNTIF('Seguimiento de NC'!$H$5:$H$148,C29)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="3:5">
-      <c r="C30" s="124" t="s">
-        <v>151</v>
-      </c>
-      <c r="D30" s="123">
+      <c r="D30" s="120">
         <f>COUNTIF('Seguimiento de NC'!$H$5:$H$148,C30)</f>
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="3:5">
-      <c r="C31" s="124" t="s">
+      <c r="C31" s="121" t="s">
         <v>37</v>
       </c>
-      <c r="D31" s="123">
+      <c r="D31" s="120">
         <f>COUNTIF('Seguimiento de NC'!$H$5:$H$148,C31)</f>
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="3:5">
-      <c r="C32" s="124" t="s">
+      <c r="C32" s="121" t="s">
         <v>36</v>
       </c>
-      <c r="D32" s="123">
+      <c r="D32" s="120">
         <f>COUNTIF('Seguimiento de NC'!$H$5:$H$148,C32)</f>
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="3:4">
-      <c r="C33" s="125" t="s">
+      <c r="C33" s="122" t="s">
         <v>16</v>
       </c>
-      <c r="D33" s="126">
+      <c r="D33" s="123">
         <f>SUM(D28:D32)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="3:4" ht="15">
-      <c r="C39" s="192" t="s">
+      <c r="C39" s="191" t="s">
         <v>109</v>
       </c>
-      <c r="D39" s="192"/>
+      <c r="D39" s="191"/>
     </row>
     <row r="40" spans="3:4">
-      <c r="C40" s="125" t="s">
+      <c r="C40" s="122" t="s">
         <v>110</v>
       </c>
-      <c r="D40" s="123">
+      <c r="D40" s="120">
         <f>Planificación!J47</f>
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="41" spans="3:4">
-      <c r="C41" s="125" t="s">
+      <c r="C41" s="122" t="s">
         <v>111</v>
       </c>
-      <c r="D41" s="123">
+      <c r="D41" s="120">
         <f>Planificación!M47</f>
-        <v>53</v>
+        <v>75</v>
       </c>
     </row>
     <row r="42" spans="3:4">
-      <c r="C42" s="125" t="s">
+      <c r="C42" s="122" t="s">
         <v>16</v>
       </c>
-      <c r="D42" s="123">
+      <c r="D42" s="120">
         <f>D40-D41</f>
-        <v>19</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="56" spans="3:4" ht="15">
-      <c r="C56" s="192" t="s">
-        <v>148</v>
-      </c>
-      <c r="D56" s="192"/>
+      <c r="C56" s="191" t="s">
+        <v>147</v>
+      </c>
+      <c r="D56" s="191"/>
     </row>
     <row r="57" spans="3:4">
       <c r="C57" s="34" t="s">
@@ -8332,39 +8382,39 @@
       </c>
     </row>
     <row r="58" spans="3:4">
-      <c r="C58" s="129" t="s">
+      <c r="C58" s="126" t="s">
         <v>96</v>
       </c>
-      <c r="D58" s="123">
+      <c r="D58" s="120">
         <f>COUNTIF('Seguimiento de NC'!$I$5:$I$148,C58)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="3:4">
-      <c r="C59" s="129" t="s">
+      <c r="C59" s="126" t="s">
         <v>98</v>
       </c>
-      <c r="D59" s="123">
+      <c r="D59" s="120">
         <f>COUNTIF('Seguimiento de NC'!$I$5:$I$148,C59)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="3:4">
-      <c r="C60" s="129" t="s">
+      <c r="C60" s="126" t="s">
         <v>99</v>
       </c>
-      <c r="D60" s="123">
+      <c r="D60" s="120">
         <f>COUNTIF('Seguimiento de NC'!$I$5:$I$148,C60)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61" spans="3:4">
-      <c r="C61" s="125" t="s">
+      <c r="C61" s="122" t="s">
         <v>16</v>
       </c>
-      <c r="D61" s="126">
+      <c r="D61" s="123">
         <f>SUM(D58:D60)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -8424,382 +8474,382 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11">
-      <c r="A2" s="127" t="s">
+      <c r="A2" s="124" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" s="124" t="s">
         <v>124</v>
       </c>
-      <c r="B2" s="127" t="s">
+      <c r="D2" s="124" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="124" t="s">
+        <v>97</v>
+      </c>
+      <c r="H2" s="124" t="s">
+        <v>122</v>
+      </c>
+      <c r="J2" s="124" t="s">
+        <v>123</v>
+      </c>
+      <c r="K2" s="124" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="13.5" thickBot="1">
+      <c r="A3" s="133"/>
+      <c r="B3" s="133"/>
+      <c r="D3" s="126" t="s">
+        <v>96</v>
+      </c>
+      <c r="F3" s="126" t="s">
+        <v>158</v>
+      </c>
+      <c r="H3" s="126" t="s">
+        <v>118</v>
+      </c>
+      <c r="J3" s="208" t="s">
+        <v>118</v>
+      </c>
+      <c r="K3" s="135" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="209" t="s">
+        <v>152</v>
+      </c>
+      <c r="B4" s="134" t="s">
+        <v>165</v>
+      </c>
+      <c r="D4" s="126" t="s">
+        <v>98</v>
+      </c>
+      <c r="F4" s="126" t="s">
+        <v>148</v>
+      </c>
+      <c r="H4" s="126" t="s">
+        <v>119</v>
+      </c>
+      <c r="J4" s="208"/>
+      <c r="K4" s="135" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="210"/>
+      <c r="B5" s="134" t="s">
+        <v>169</v>
+      </c>
+      <c r="D5" s="126" t="s">
+        <v>99</v>
+      </c>
+      <c r="F5" s="126" t="s">
+        <v>149</v>
+      </c>
+      <c r="H5" s="126" t="s">
+        <v>152</v>
+      </c>
+      <c r="J5" s="208"/>
+      <c r="K5" s="135" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="210"/>
+      <c r="B6" s="134" t="s">
+        <v>173</v>
+      </c>
+      <c r="F6" s="126" t="s">
+        <v>150</v>
+      </c>
+      <c r="H6" s="126"/>
+      <c r="J6" s="208"/>
+      <c r="K6" s="135" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="210"/>
+      <c r="B7" s="134" t="s">
+        <v>180</v>
+      </c>
+      <c r="F7" s="126" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" s="126"/>
+      <c r="J7" s="208" t="s">
         <v>125</v>
       </c>
-      <c r="D2" s="127" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" s="127" t="s">
-        <v>97</v>
-      </c>
-      <c r="H2" s="127" t="s">
-        <v>123</v>
-      </c>
-      <c r="J2" s="127" t="s">
-        <v>124</v>
-      </c>
-      <c r="K2" s="127" t="s">
+      <c r="K7" s="135" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="210"/>
+      <c r="B8" s="134" t="s">
+        <v>167</v>
+      </c>
+      <c r="F8" s="126" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="126"/>
+      <c r="J8" s="208"/>
+      <c r="K8" s="135" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="13.5" thickBot="1">
-      <c r="A3" s="137"/>
-      <c r="B3" s="137"/>
-      <c r="D3" s="129" t="s">
-        <v>96</v>
-      </c>
-      <c r="F3" s="129" t="s">
-        <v>159</v>
-      </c>
-      <c r="H3" s="129" t="s">
-        <v>119</v>
-      </c>
-      <c r="J3" s="209" t="s">
-        <v>119</v>
-      </c>
-      <c r="K3" s="139" t="s">
+    <row r="9" spans="1:11">
+      <c r="A9" s="210"/>
+      <c r="B9" s="134" t="s">
+        <v>170</v>
+      </c>
+      <c r="J9" s="208"/>
+      <c r="K9" s="135" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="210" t="s">
-        <v>153</v>
-      </c>
-      <c r="B4" s="138" t="s">
+    <row r="10" spans="1:11">
+      <c r="A10" s="210"/>
+      <c r="B10" s="134" t="s">
+        <v>174</v>
+      </c>
+      <c r="F10" s="130"/>
+      <c r="J10" s="208"/>
+      <c r="K10" s="135" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="210"/>
+      <c r="B11" s="134" t="s">
+        <v>179</v>
+      </c>
+      <c r="F11" s="130"/>
+      <c r="J11" s="208"/>
+      <c r="K11" s="135" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="12.75" customHeight="1" thickBot="1">
+      <c r="A12" s="211"/>
+      <c r="B12" s="134" t="s">
+        <v>168</v>
+      </c>
+      <c r="F12" s="130"/>
+      <c r="J12" s="208"/>
+      <c r="K12" s="135" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="B13" s="134" t="s">
+        <v>171</v>
+      </c>
+      <c r="D13" s="136"/>
+      <c r="J13" s="208"/>
+      <c r="K13" s="135" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="B14" s="134" t="s">
+        <v>175</v>
+      </c>
+      <c r="J14" s="208" t="s">
+        <v>120</v>
+      </c>
+      <c r="K14" s="135" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="B15" s="134" t="s">
+        <v>178</v>
+      </c>
+      <c r="J15" s="208"/>
+      <c r="K15" s="135" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="B16" s="134" t="s">
         <v>166</v>
       </c>
-      <c r="D4" s="129" t="s">
-        <v>98</v>
-      </c>
-      <c r="F4" s="129" t="s">
-        <v>149</v>
-      </c>
-      <c r="H4" s="129" t="s">
-        <v>120</v>
-      </c>
-      <c r="J4" s="209"/>
-      <c r="K4" s="139" t="s">
+      <c r="J16" s="208"/>
+      <c r="K16" s="135" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11">
+      <c r="B17" s="134" t="s">
+        <v>172</v>
+      </c>
+      <c r="J17" s="208"/>
+      <c r="K17" s="135" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11">
+      <c r="B18" s="134" t="s">
+        <v>176</v>
+      </c>
+      <c r="J18" s="208"/>
+      <c r="K18" s="135" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11">
+      <c r="B19" s="134" t="s">
+        <v>177</v>
+      </c>
+      <c r="J19" s="208"/>
+      <c r="K19" s="135" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11">
+      <c r="J20" s="208"/>
+      <c r="K20" s="135" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11">
+      <c r="J21" s="208"/>
+      <c r="K21" s="135" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11">
+      <c r="J22" s="208"/>
+      <c r="K22" s="135" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11">
+      <c r="J23" s="208"/>
+      <c r="K23" s="135" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11">
+      <c r="J24" s="208" t="s">
+        <v>206</v>
+      </c>
+      <c r="K24" s="135" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11">
+      <c r="J25" s="208"/>
+      <c r="K25" s="135" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11">
+      <c r="J26" s="208"/>
+      <c r="K26" s="135" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11">
+      <c r="J27" s="208"/>
+      <c r="K27" s="135" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11">
+      <c r="J28" s="208"/>
+      <c r="K28" s="135" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11">
+      <c r="J29" s="208"/>
+      <c r="K29" s="135" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11">
+      <c r="J30" s="208"/>
+      <c r="K30" s="135" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11">
+      <c r="J31" s="208" t="s">
+        <v>207</v>
+      </c>
+      <c r="K31" s="135" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11">
+      <c r="J32" s="208"/>
+      <c r="K32" s="135" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="33" spans="10:11">
+      <c r="J33" s="208"/>
+      <c r="K33" s="135" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="34" spans="10:11">
+      <c r="J34" s="208"/>
+      <c r="K34" s="135" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="35" spans="10:11">
+      <c r="J35" s="208"/>
+      <c r="K35" s="135" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="36" spans="10:11">
+      <c r="J36" s="208" t="s">
+        <v>121</v>
+      </c>
+      <c r="K36" s="135" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="37" spans="10:11">
+      <c r="J37" s="208"/>
+      <c r="K37" s="135" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="38" spans="10:11">
+      <c r="J38" s="208"/>
+      <c r="K38" s="135" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="39" spans="10:11">
+      <c r="J39" s="208"/>
+      <c r="K39" s="135" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="40" spans="10:11">
+      <c r="J40" s="208"/>
+      <c r="K40" s="135" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="41" spans="10:11">
+      <c r="J41" s="208"/>
+      <c r="K41" s="135" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="211"/>
-      <c r="B5" s="138" t="s">
-        <v>170</v>
-      </c>
-      <c r="D5" s="129" t="s">
-        <v>99</v>
-      </c>
-      <c r="F5" s="129" t="s">
-        <v>150</v>
-      </c>
-      <c r="H5" s="129" t="s">
-        <v>153</v>
-      </c>
-      <c r="J5" s="209"/>
-      <c r="K5" s="139" t="s">
+    <row r="42" spans="10:11">
+      <c r="J42" s="208"/>
+      <c r="K42" s="135" t="s">
         <v>130</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="211"/>
-      <c r="B6" s="138" t="s">
-        <v>174</v>
-      </c>
-      <c r="F6" s="129" t="s">
-        <v>151</v>
-      </c>
-      <c r="H6" s="129"/>
-      <c r="J6" s="209"/>
-      <c r="K6" s="139" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="211"/>
-      <c r="B7" s="138" t="s">
-        <v>181</v>
-      </c>
-      <c r="F7" s="129" t="s">
-        <v>37</v>
-      </c>
-      <c r="H7" s="129"/>
-      <c r="J7" s="209" t="s">
-        <v>126</v>
-      </c>
-      <c r="K7" s="139" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="211"/>
-      <c r="B8" s="138" t="s">
-        <v>168</v>
-      </c>
-      <c r="F8" s="129" t="s">
-        <v>36</v>
-      </c>
-      <c r="H8" s="129"/>
-      <c r="J8" s="209"/>
-      <c r="K8" s="139" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="211"/>
-      <c r="B9" s="138" t="s">
-        <v>171</v>
-      </c>
-      <c r="J9" s="209"/>
-      <c r="K9" s="139" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="211"/>
-      <c r="B10" s="138" t="s">
-        <v>175</v>
-      </c>
-      <c r="F10" s="134"/>
-      <c r="J10" s="209"/>
-      <c r="K10" s="139" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="211"/>
-      <c r="B11" s="138" t="s">
-        <v>180</v>
-      </c>
-      <c r="F11" s="134"/>
-      <c r="J11" s="209"/>
-      <c r="K11" s="139" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A12" s="212"/>
-      <c r="B12" s="138" t="s">
-        <v>169</v>
-      </c>
-      <c r="F12" s="134"/>
-      <c r="J12" s="209"/>
-      <c r="K12" s="139" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="B13" s="138" t="s">
-        <v>172</v>
-      </c>
-      <c r="D13" s="140"/>
-      <c r="J13" s="209"/>
-      <c r="K13" s="139" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="B14" s="138" t="s">
-        <v>176</v>
-      </c>
-      <c r="J14" s="209" t="s">
-        <v>121</v>
-      </c>
-      <c r="K14" s="139" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="B15" s="138" t="s">
-        <v>179</v>
-      </c>
-      <c r="J15" s="209"/>
-      <c r="K15" s="139" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="B16" s="138" t="s">
-        <v>167</v>
-      </c>
-      <c r="J16" s="209"/>
-      <c r="K16" s="139" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11">
-      <c r="B17" s="138" t="s">
-        <v>173</v>
-      </c>
-      <c r="J17" s="209"/>
-      <c r="K17" s="139" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11">
-      <c r="B18" s="138" t="s">
-        <v>177</v>
-      </c>
-      <c r="J18" s="209"/>
-      <c r="K18" s="139" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11">
-      <c r="B19" s="138" t="s">
-        <v>178</v>
-      </c>
-      <c r="J19" s="209"/>
-      <c r="K19" s="139" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11">
-      <c r="J20" s="209"/>
-      <c r="K20" s="139" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11">
-      <c r="J21" s="209"/>
-      <c r="K21" s="139" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11">
-      <c r="J22" s="209"/>
-      <c r="K22" s="139" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11">
-      <c r="J23" s="209"/>
-      <c r="K23" s="139" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11">
-      <c r="J24" s="209" t="s">
-        <v>207</v>
-      </c>
-      <c r="K24" s="139" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11">
-      <c r="J25" s="209"/>
-      <c r="K25" s="139" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="26" spans="2:11">
-      <c r="J26" s="209"/>
-      <c r="K26" s="139" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="27" spans="2:11">
-      <c r="J27" s="209"/>
-      <c r="K27" s="139" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="28" spans="2:11">
-      <c r="J28" s="209"/>
-      <c r="K28" s="139" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="29" spans="2:11">
-      <c r="J29" s="209"/>
-      <c r="K29" s="139" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="30" spans="2:11">
-      <c r="J30" s="209"/>
-      <c r="K30" s="139" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="31" spans="2:11">
-      <c r="J31" s="209" t="s">
-        <v>208</v>
-      </c>
-      <c r="K31" s="139" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="32" spans="2:11">
-      <c r="J32" s="209"/>
-      <c r="K32" s="139" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="33" spans="10:11">
-      <c r="J33" s="209"/>
-      <c r="K33" s="139" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="34" spans="10:11">
-      <c r="J34" s="209"/>
-      <c r="K34" s="139" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="35" spans="10:11">
-      <c r="J35" s="209"/>
-      <c r="K35" s="139" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="36" spans="10:11">
-      <c r="J36" s="209" t="s">
-        <v>122</v>
-      </c>
-      <c r="K36" s="139" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="37" spans="10:11">
-      <c r="J37" s="209"/>
-      <c r="K37" s="139" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="38" spans="10:11">
-      <c r="J38" s="209"/>
-      <c r="K38" s="139" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="39" spans="10:11">
-      <c r="J39" s="209"/>
-      <c r="K39" s="139" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="40" spans="10:11">
-      <c r="J40" s="209"/>
-      <c r="K40" s="139" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="41" spans="10:11">
-      <c r="J41" s="209"/>
-      <c r="K41" s="139" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="42" spans="10:11">
-      <c r="J42" s="209"/>
-      <c r="K42" s="139" t="s">
-        <v>131</v>
       </c>
     </row>
   </sheetData>
